--- a/Equipe301.xlsx
+++ b/Equipe301.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAF8EB2-51C1-44AF-B8E3-ED34B18E5F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DC2B3F-2124-4287-8DB9-722830B1A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="202">
   <si>
     <t>Fonct.</t>
   </si>
@@ -105,7 +105,13 @@
     <t>-0.5 EndGameService
 code mort: mock-board.service.spec.ts 
 -0.5 GameService
- -0.5 PlayGenerator</t>
+ -0.5 PlayGenerator
+--- Recorrection ---
+-0.5 EndGameService
+-0.5 GameService</t>
+  </si>
+  <si>
+    <t>-0 Client:BoardComponent semble faire plusieurs choses, bougez votre logique dans un service</t>
   </si>
   <si>
     <t>1.2 Nom</t>
@@ -137,6 +143,9 @@
 -0.25 GameService:playerRackPoint
 -0.25 GridService:drawSymbol
 -0.25 VirtualPlayerService:endTurn</t>
+  </si>
+  <si>
+    <t>Client:CommandService:wordRegex, rackRegex, ...</t>
   </si>
   <si>
     <t>1.5 Valeur par défaut</t>
@@ -152,6 +161,12 @@
 -0.5 TimeService</t>
   </si>
   <si>
+    <t>-0.2 Client:BoardComponent
+-0.2 Client:RackComponent
+-0.2 Client:GameService
+-0 Client:InitGameComponent.constructor:58</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -171,10 +186,17 @@
     <t>-0.25  game-page.component.ts:78</t>
   </si>
   <si>
+    <t>-0.25 place-letter.service.ts:samePosition() ?
+-0.25 reserve-handler.ts:drawLetter ?</t>
+  </si>
+  <si>
     <t>2.2 Utilité</t>
   </si>
   <si>
     <t xml:space="preserve">Chaque fonction n'a qu'une seule utilité, elle ne peut pas être fragmentée en plusieurs fonctions et elle est facilement lisible. </t>
+  </si>
+  <si>
+    <t>-0.5 human.player.ts:20</t>
   </si>
   <si>
     <t>2.3 Nombre de paramètres</t>
@@ -212,6 +234,9 @@
 -0.25 BoardService:62</t>
   </si>
   <si>
+    <t>-0 Server:BoardHandler.retrieveNewLetters</t>
+  </si>
+  <si>
     <t>3.2 Valeurs limites</t>
   </si>
   <si>
@@ -225,6 +250,9 @@
   </si>
   <si>
     <t>Tout code asynchrone (Promise, Observable ou Event) doit être géré adéquatement.</t>
+  </si>
+  <si>
+    <t>Server:SessionHandler, Server:PlayerHandler, Good job</t>
   </si>
   <si>
     <t>4. Variables</t>
@@ -286,6 +314,10 @@
 </t>
   </si>
   <si>
+    <t>-0 Client:NameValidator:26
+-0.25 Client:BoardComponent:133, 183</t>
+  </si>
+  <si>
     <t>5.3 Opérateurs ternaires</t>
   </si>
   <si>
@@ -293,6 +325,11 @@
   </si>
   <si>
     <t>-0.5 rack-component:16</t>
+  </si>
+  <si>
+    <t>-0.25 Client:SizeSelector:increase, decrease
+Good job Client:GameService
+-0 Client:PlaceLetterService:46</t>
   </si>
   <si>
     <t>5.4 Prédicats</t>
@@ -307,6 +344,14 @@
  -0.25 GameService:98</t>
   </si>
   <si>
+    <t>-0.25 Client:RoomListComponent:101
+-0 ClientGridService:120
+-0 Server:Board:57, 131
+-0 Server:BoardValidator:retrieveDirection
+-0 Server:GameService:92
+-0.25 Server:GameService:116</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -332,6 +377,9 @@
     <t>Le code est correctement indenté et organisé en groupes logiques.</t>
   </si>
   <si>
+    <t>-0.25 grid.service.ts:188:espacement</t>
+  </si>
+  <si>
     <t>6.4 Langue de programmation</t>
   </si>
   <si>
@@ -351,6 +399,9 @@
 -0.25 reserve.service.ts:32</t>
   </si>
   <si>
+    <t>-0.25 grid.service.ts:135</t>
+  </si>
+  <si>
     <t>6.6 Enums</t>
   </si>
   <si>
@@ -358,6 +409,9 @@
   </si>
   <si>
     <t>-1 command.service.ts:28</t>
+  </si>
+  <si>
+    <t>-0.5 commands.service.ts:50,53,56....</t>
   </si>
   <si>
     <t>6.7 Utilisation des classes et interfaces</t>
@@ -377,6 +431,11 @@
     <t>Il n'y a pas de duplication de code.</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.5 board.component.ts:227, 231
+-0.5 size-selector.component.ts:14,23
+</t>
+  </si>
+  <si>
     <t>6.9 ESLint</t>
   </si>
   <si>
@@ -384,9 +443,7 @@
 L'utilisation raisonnable de eslint:disable est tolérée dans les fichiers spec.ts.</t>
   </si>
   <si>
-    <t>-25 % bonus.ts:19
--25% direction.ts:17
--25% dictionary.constants.ts:1</t>
+    <t xml:space="preserve">-6 eslint-disable; </t>
   </si>
   <si>
     <t xml:space="preserve">6.10 Imbrication </t>
@@ -400,6 +457,11 @@
 -0.5 end-game.component.ts:26</t>
   </si>
   <si>
+    <t>-0.5 init-game.component.ts:90 
+-0.5 rack.component.ts:139
+-0.5 rack.service.ts:70</t>
+  </si>
+  <si>
     <t>6.11 Performance</t>
   </si>
   <si>
@@ -421,9 +483,7 @@
     <t>Chaque commit concerne une seule "issue" et les messages sont pertinents et suffisamment descriptifs pour chaque commit</t>
   </si>
   <si>
-    <t>-0.25 ''pull dev''
--0.25 ''trying to pull''
- -0.25 ''change ngif''</t>
+    <t>14 octobre - "fix"</t>
   </si>
   <si>
     <t>7.3 Branches mortes</t>
@@ -481,25 +541,32 @@
     <t>1.2 Initialisation d'une nouvelle partie (mode solo)</t>
   </si>
   <si>
-    <t>-0.25 possibilité de choisir une durée de plus de 1 minute.
--0.25 erreur test ini-solo-mode.component.spec.ts
--1 La partie n'est pas toujour reinitialiser.
+    <t xml:space="preserve">-0.25 possibilité de choisir une durée de plus de 1 minute.
+-0.5 La partie n'est pas toujour reinitialiser.
 Explication:
 Quitter la partie avec le boutton précedant du navigateur et          relancer la partie.
         Plus de 7 lettres dans le chevalet. 
-        Les mots devinés restent sur le canvas.</t>
+        Les mots devinés restent sur le canvas.
+</t>
   </si>
   <si>
     <t>1.3 Mode de jeu classique - Joueur Virtuel débutant</t>
   </si>
   <si>
-    <t>Fonctionnalité
+    <t>Fonctionnalité (0.86)
 -1 le système doit envoyer une commande dans la boite de communication lorsque le JV effectue une action
 -1 le système affiche 3 possibilités de placement alternatives seulement si l'affichage de débogage est activé
 -0.5 le système respecte le format d'affichage donné par la description du projet
 -1 si je pose une action invalid, ca me fait passer mon tour
+Tests (0.75)
+ValidationBoardValidation, PlayComponent, GridService 
+--- Recorrection --- 
+Fonctionnalité
+-1 le système doit envoyer une commande dans la boite de communication lorsque le JV effectue une action
+-1 le système doit afficher 3 possibilités de placement alternatif si l'affichage débogage est activé
+-0.5 le système respecte le format d'affichage donné par la description du projet
 Tests
-ValidationBoardValidation, PlayComponent, GridService</t>
+ValidationBoardValidation, PlayComponent, GridService,</t>
   </si>
   <si>
     <t>1.4 Validation locale des mots</t>
@@ -531,10 +598,18 @@
     <t>1.7 Placer des lettres (commande seulement)</t>
   </si>
   <si>
-    <t>-1 placer un mot invalide me fait passer mon tour
--1 parfois je fais placer, ma ca échanger mes lettres à la place
+    <t>Fonctionnalité (0.83)
+-1 placer un mot invalide me fait passer mon tour
+-1 parfois je fais placer, mais ca échanger mes lettres à la place
+Tests (0.75)
+playerService.placeLetters()
+--- Recorrection ---
+Fonctionnalité
+-1 Parfois, je suis parfois incapable de placer un mot à la verticale (!placer g10v sue, !placer g12v si)
+-1 quand je joue une action sans erreur mais qui provoque un mot invalide, les lettres ne sont pas mises sur le plateau avant d'être retournées (p. 16)
+-1 quand je joue une action avec erreur (par exemple, une lettre que je n'ai pas) ça ne me donne pas toujours un message d'erreur et ça saute mon tour
 Tests
-playerService.placeLetters()</t>
+playerService.placeLetters</t>
   </si>
   <si>
     <t>1. Échanger des lettres (commande seulement)</t>
@@ -543,7 +618,6 @@
     <t>-0.5 la commande échanger est invalide. (echanger sont accepté ce qui n'est pas correct !) 
 -0.5 aucun message du systeme quand la commande est valide
 -0.25 la boite de communication présente les actions du joeurs virtuel comme étant les actions du joueur
--0.5 le système ne retire pas les lettres à échanger quand la commande est valide. (Oui, le système vas substituer les lettres mais il les requis de les retirer avant de les remplacer!)
 -0.25 un message de commande réussi est affiché quand on échange une lettre qui ne se trouve pas dans le chevalet</t>
   </si>
   <si>
@@ -577,31 +651,130 @@
     <t>2.1 Mode multijoueur</t>
   </si>
   <si>
+    <t>Tests
+board.component.ts
+game.service.ts
+rack.component.ts
+commands.service.ts
+board-handler.ts</t>
+  </si>
+  <si>
     <t>2.2 Clavarder</t>
   </si>
   <si>
     <t>2.3 Validation des mots sur le serveur</t>
   </si>
   <si>
+    <t>-1: Si la validation échoue, le système retire les lettres placées et les redonne au joueur après 3 secondes.</t>
+  </si>
+  <si>
     <t>2.4 Paramètres de partie (minuterie et mode aléatoire)</t>
   </si>
   <si>
     <t>2.5 Initialisation d'une nouvelle partie (mode multijoueur)</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Paramètres de partie
+-0 Impossible de choisir le profil du JV
+2. Changement multijoueur -&gt; solo: Oui
+3. Salle d'attente pour la personne qui a créé la partie: Oui
+4. Possible de rejoindre une salle d'attente: Oui
+5. Retirer la partie de l'affichage lorsqu'elle commence: Oui
+6. Retirer la partie de l'affichage si j'annule: Oui
+---TESTS---
+Client
+- RoomListComponent, WaitingRoomPageComponent, InitGameComponent
+- RoomService
+Serveur
+- RoomController</t>
+  </si>
+  <si>
     <t>2.6 Placer des lettres</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Placer des lettres: Oui
+2. Sélection de la case vide
+-0.5 Possible de changer la case de départ lorsqu'il y a des lettres de placées
+3. Choisir une lettre avec le clavier: Oui
+4. Retirer une lettre
+-0.5 Lorsque je place 2 lettres proche d'une bordure et que je fais backspace, il est possible d'avoir des lettres vides dans mon chevalet.
+5. Confirmer un placement
+-1 Lorsque je sélectionne une case de départ, puis je change de case de départ, si je confirme un placement avec la touche enter, les lettres sont retirées de mon chevalet, mais ne sont pas affichées sur le plateau de jeu. Lorsque le tour termine, les lettres me sont retournées.
+-0.5 Lorsque je crée un mot avec une lettre déjà en place sur le jeu au milieu du mot, la validation échoue (pour la verticale).
+6. Annuler un placement: Oui
+7. Affichage dans la boite de communication : Oui
+---TESTS---
+Client
+- PlayAreaComponent, GamePageComponent, BoardComponent
+- GridService, MouseHandlingService, BoardService, PlaceLetterService, GameService
+Serveur</t>
+  </si>
+  <si>
     <t>2.7 Échanger des lettres</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Sélection bouton droit: Oui
+2. Annuler la sélection lors du changement de récepteur: Oui
+3. Affichage du bouton échanger: Oui
+4. Affichage du bouton annuler: Oui
+5. Piger dans la réserve: Oui
+6. Affichage dans la boite de communucation: Oui
+---TESTS---
+Client: Oui
+Server: Oui</t>
+  </si>
+  <si>
     <t>2.8 Abandonner une partie</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Bouton abandonner: Oui
+2. Abandonner à tout moment: Oui
+3. Message de confirmation: Oui
+4. Redirection à la page d'accueil: Oui
+5. Annuler l'abandon: Oui
+6. Abandonner déclare l'adversaire gagnant: Oui
+7. Fermeture du site web: Oui
+---TESTS---
+Client: Oui
+Server:
+- RoomController.socket.on('exit')</t>
+  </si>
+  <si>
     <t>2.9 Manipuler les lettres du chevalet</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Manipulation en tout temps avec bouton gauche: Oui
+2. Manipulation: 
+-1 la roulette ne déplace pas la sélection
+3. Un seul type de sélection: 
+-0 sélection échange et sélection déplacement en même temps sur des lettres différentes
+4. Annuler si une touche ne représente pas une lettre du chevalet: Oui
+---TESTS---
+Client: Oui
+Server: N/A</t>
+  </si>
+  <si>
     <t>2.10 Commande réserve</t>
+  </si>
+  <si>
+    <t>---FONCTIONNALITÉS---
+1. Commande réserve: Oui
+2. Affichage de la lettre blanche: Oui
+3. Respect du format: Oui
+4. Affichage seulement pour le joueur ayant envoyé la commande: Oui
+5. Seulement accessible si débogage: Oui
+---TESTS---
+Client: Oui
+Server: N/A</t>
+  </si>
+  <si>
+    <t>GR: commentaire UI/UX: il serait bien que vous tuiles sur le plateau de jeu soit d'une autre couleur que transparent, ce serait plus facile de voir les lettres
+GR: svp enlever la règle de lettre majuscule dans le nom du joueur pour m'aider dans la correction ;) (Merci)</t>
   </si>
   <si>
     <t>Ne build pas</t>
@@ -644,13 +817,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -779,8 +958,15 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,8 +1122,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1476,17 +1674,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1494,13 +1705,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1509,10 +1720,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,46 +1741,46 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1602,22 +1813,22 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1647,16 +1858,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,13 +1876,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,13 +1894,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1701,7 +1912,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1722,110 +1933,110 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1834,13 +2045,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1849,22 +2060,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,10 +2087,10 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1951,43 +2162,37 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="14" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="14" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="12" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="12" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1999,16 +2204,16 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2032,10 +2237,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2056,10 +2261,10 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2092,49 +2297,49 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="21" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="21" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="21" borderId="8" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="21" borderId="8" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="22" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="22" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="22" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="22" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="23" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2157,7 +2362,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2175,7 +2380,7 @@
     <xf numFmtId="2" fontId="0" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="21" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="21" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2193,40 +2398,79 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2235,55 +2479,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2292,40 +2536,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2334,13 +2578,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2349,13 +2593,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2364,17 +2608,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2768,7 +3018,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2781,7 +3031,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="217"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2791,7 +3041,7 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="207" t="s">
+      <c r="E3" s="205" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2802,66 +3052,66 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="207">
         <f>(Fonctionnalités!E20)</f>
-        <v>0.70250000000000001</v>
-      </c>
-      <c r="C4" s="210">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="C4" s="208">
         <f>'Assurance Qualité'!C61</f>
-        <v>0.77</v>
-      </c>
-      <c r="D4" s="210">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="D4" s="208">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
-        <v>0.72950000000000004</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="F4" s="13">
         <v>15</v>
       </c>
       <c r="G4" s="12">
         <f>D4*F4</f>
-        <v>10.942500000000001</v>
+        <v>11.0625</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="212">
+      <c r="B5" s="210">
         <f>(Fonctionnalités!E36)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="213">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="C5" s="211">
         <f>'Assurance Qualité'!F61</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="213">
+        <v>0.93900000000000006</v>
+      </c>
+      <c r="D5" s="211">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.87660000000000005</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>21.915000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="215">
+      <c r="B6" s="213">
         <f>(Fonctionnalités!E53)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="216">
+      <c r="C6" s="214">
         <f>'Assurance Qualité'!I61</f>
         <v>0</v>
       </c>
-      <c r="D6" s="216">
+      <c r="D6" s="214">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2898,18 +3148,18 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" style="17" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="17" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" style="17" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="17" customWidth="1"/>
     <col min="12" max="13" width="12.7109375" customWidth="1"/>
@@ -2918,85 +3168,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="272"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="262"/>
-      <c r="H4" s="262"/>
-      <c r="I4" s="262"/>
-      <c r="J4" s="262"/>
-      <c r="K4" s="262"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="218"/>
+      <c r="B5" s="216"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="218"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="218"/>
+      <c r="H5" s="216"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="218"/>
+      <c r="K5" s="216"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="256" t="s">
+      <c r="C6" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="257"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="258" t="s">
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="259"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="263" t="s">
+      <c r="G6" s="270"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="264"/>
-      <c r="K6" s="265"/>
+      <c r="J6" s="275"/>
+      <c r="K6" s="276"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="253"/>
-      <c r="P6" s="253"/>
+      <c r="N6" s="263"/>
+      <c r="O6" s="264"/>
+      <c r="P6" s="264"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="255"/>
-      <c r="B7" s="267"/>
+      <c r="A7" s="266"/>
+      <c r="B7" s="278"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -3026,58 +3276,65 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="217"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="217"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="245"/>
-      <c r="C8" s="240" t="s">
+      <c r="B8" s="256"/>
+      <c r="C8" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="241"/>
+      <c r="D8" s="252"/>
       <c r="E8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="240" t="s">
+      <c r="F8" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="241"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="240" t="s">
+      <c r="G8" s="252"/>
+      <c r="H8" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="241"/>
+      <c r="J8" s="252"/>
       <c r="K8" s="58"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="120">
+    <row r="9" spans="1:17" ht="105">
       <c r="A9" s="75" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="223">
-        <f>(3-3*0.5)/3</f>
-        <v>0.5</v>
+      <c r="C9" s="221">
+        <f>(3-2*0.5)/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D9" s="47">
         <v>3</v>
       </c>
-      <c r="E9" s="237" t="s">
+      <c r="E9" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="51">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
       <c r="G9" s="48">
         <v>3</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="H9" s="52" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="53"/>
       <c r="J9" s="49">
         <v>3</v>
@@ -3088,10 +3345,10 @@
     </row>
     <row r="10" spans="1:17" ht="45">
       <c r="A10" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="35">
         <f>2/2</f>
@@ -3101,7 +3358,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G10" s="33">
         <v>2</v>
       </c>
@@ -3114,14 +3374,14 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="45">
+    <row r="11" spans="1:17" ht="60">
       <c r="A11" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="238">
+        <v>26</v>
+      </c>
+      <c r="C11" s="236">
         <f>(3-0.5)/3</f>
         <v>0.83333333333333337</v>
       </c>
@@ -3129,9 +3389,12 @@
         <v>3</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="F11" s="37">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
       <c r="G11" s="33">
         <v>3</v>
       </c>
@@ -3146,10 +3409,10 @@
     </row>
     <row r="12" spans="1:17" ht="198.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="35">
         <f>(2-1)/2</f>
@@ -3159,13 +3422,18 @@
         <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="37"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="37">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G12" s="33">
         <v>2</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="39"/>
       <c r="J12" s="34">
         <v>2</v>
@@ -3174,12 +3442,12 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="180">
+    <row r="13" spans="1:17" ht="75">
       <c r="A13" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="35">
         <f>(4-2)/4</f>
@@ -3189,13 +3457,18 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="F13" s="37">
+        <f>(4-3*0.2)/4</f>
+        <v>0.85</v>
+      </c>
       <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="34">
         <v>4</v>
@@ -3205,13 +3478,13 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="242" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="243"/>
+      <c r="A14" s="253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="254"/>
       <c r="C14" s="84">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D14" s="85">
         <f>SUM(D9:D13)</f>
@@ -3220,7 +3493,7 @@
       <c r="E14" s="86"/>
       <c r="F14" s="87">
         <f>SUMPRODUCT(F9:F13,G9:G13)</f>
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="G14" s="88">
         <f>SUM(G9:G13)</f>
@@ -3240,38 +3513,40 @@
       <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="249" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="250"/>
-      <c r="C15" s="240" t="s">
+      <c r="A15" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="261"/>
+      <c r="C15" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="241"/>
+      <c r="D15" s="252"/>
       <c r="E15" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="240" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="241"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="240" t="s">
+      <c r="G15" s="252"/>
+      <c r="H15" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="241"/>
+      <c r="J15" s="252"/>
       <c r="K15" s="58"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="45">
       <c r="A16" s="75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="239">
+        <v>40</v>
+      </c>
+      <c r="C16" s="237">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
@@ -3279,13 +3554,18 @@
         <v>2</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="65"/>
+        <v>41</v>
+      </c>
+      <c r="F16" s="65">
+        <f>1.5/2</f>
+        <v>0.75</v>
+      </c>
       <c r="G16" s="66">
         <v>2</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>42</v>
+      </c>
       <c r="I16" s="71"/>
       <c r="J16" s="72">
         <v>2</v>
@@ -3296,10 +3576,10 @@
     </row>
     <row r="17" spans="1:13" ht="30">
       <c r="A17" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17" s="45">
         <v>1</v>
@@ -3308,11 +3588,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="62"/>
-      <c r="F17" s="68"/>
+      <c r="F17" s="243">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G17" s="42">
         <v>3</v>
       </c>
-      <c r="H17" s="69"/>
+      <c r="H17" s="69" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="74"/>
       <c r="J17" s="44">
         <v>3</v>
@@ -3323,12 +3608,12 @@
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="228">
+        <v>47</v>
+      </c>
+      <c r="C18" s="226">
         <f>2.75/3</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3336,9 +3621,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="68"/>
+        <v>48</v>
+      </c>
+      <c r="F18" s="68">
+        <v>1</v>
+      </c>
       <c r="G18" s="42">
         <v>3</v>
       </c>
@@ -3353,10 +3640,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3365,7 +3652,9 @@
         <v>3</v>
       </c>
       <c r="E19" s="62"/>
-      <c r="F19" s="68"/>
+      <c r="F19" s="68">
+        <v>1</v>
+      </c>
       <c r="G19" s="42">
         <v>3</v>
       </c>
@@ -3380,10 +3669,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3392,7 +3681,9 @@
         <v>2</v>
       </c>
       <c r="E20" s="62"/>
-      <c r="F20" s="68"/>
+      <c r="F20" s="68">
+        <v>1</v>
+      </c>
       <c r="G20" s="42">
         <v>2</v>
       </c>
@@ -3406,10 +3697,10 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="94" customFormat="1" ht="15.75">
-      <c r="A21" s="251" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="248"/>
+      <c r="A21" s="262" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="259"/>
       <c r="C21" s="95">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>12.5</v>
@@ -3421,7 +3712,7 @@
       <c r="E21" s="97"/>
       <c r="F21" s="98">
         <f>SUMPRODUCT(F16:F20,G16:G20)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G21" s="99">
         <f>SUM(G16:G20)</f>
@@ -3441,36 +3732,38 @@
       <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="244" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="245"/>
-      <c r="C22" s="240" t="s">
+      <c r="A22" s="255" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="256"/>
+      <c r="C22" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="241"/>
+      <c r="D22" s="252"/>
       <c r="E22" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="240" t="s">
+      <c r="F22" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="241"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="240" t="s">
+      <c r="G22" s="252"/>
+      <c r="H22" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="241"/>
+      <c r="J22" s="252"/>
       <c r="K22" s="58"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="60">
       <c r="A23" s="77" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C23" s="81">
         <f>(2-2*0.25)/2</f>
@@ -3480,13 +3773,18 @@
         <v>2</v>
       </c>
       <c r="E23" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="106"/>
+        <v>56</v>
+      </c>
+      <c r="F23" s="106">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G23" s="107">
         <v>2</v>
       </c>
-      <c r="H23" s="108"/>
+      <c r="H23" s="108" t="s">
+        <v>57</v>
+      </c>
       <c r="I23" s="111"/>
       <c r="J23" s="112">
         <v>2</v>
@@ -3495,12 +3793,12 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="45">
+    <row r="24" spans="1:13">
       <c r="A24" s="79" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C24" s="45">
         <f>(1-0.25)/1</f>
@@ -3510,9 +3808,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="68"/>
+        <v>60</v>
+      </c>
+      <c r="F24" s="68">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G24" s="42">
         <v>1</v>
       </c>
@@ -3527,10 +3828,10 @@
     </row>
     <row r="25" spans="1:13" ht="30">
       <c r="A25" s="79" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C25" s="45">
         <f>1/1</f>
@@ -3540,11 +3841,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="62"/>
-      <c r="F25" s="68"/>
+      <c r="F25" s="68">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G25" s="42">
         <v>1</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="69" t="s">
+        <v>63</v>
+      </c>
       <c r="I25" s="74"/>
       <c r="J25" s="44">
         <v>1</v>
@@ -3554,10 +3860,10 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="247" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="248"/>
+      <c r="A26" s="258" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="259"/>
       <c r="C26" s="84">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>3.25</v>
@@ -3569,7 +3875,7 @@
       <c r="E26" s="86"/>
       <c r="F26" s="98">
         <f>SUMPRODUCT(F23:F25,G23:G25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="99">
         <f>SUM(G23:G25)</f>
@@ -3589,36 +3895,38 @@
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="244" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="245"/>
-      <c r="C27" s="240" t="s">
+      <c r="A27" s="255" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="256"/>
+      <c r="C27" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="241"/>
+      <c r="D27" s="252"/>
       <c r="E27" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="240" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="241"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="240" t="s">
+      <c r="G27" s="252"/>
+      <c r="H27" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="241"/>
+      <c r="J27" s="252"/>
       <c r="K27" s="58"/>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
       <c r="A28" s="117" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C28" s="109">
         <v>1</v>
@@ -3627,7 +3935,9 @@
         <v>2</v>
       </c>
       <c r="E28" s="110"/>
-      <c r="F28" s="104"/>
+      <c r="F28" s="104">
+        <v>1</v>
+      </c>
       <c r="G28" s="63">
         <v>2</v>
       </c>
@@ -3640,14 +3950,14 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" ht="75">
+    <row r="29" spans="1:13" ht="60" customHeight="1">
       <c r="A29" s="54" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="45">
+        <v>68</v>
+      </c>
+      <c r="C29" s="226">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
@@ -3655,9 +3965,11 @@
         <v>2</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="68"/>
+        <v>69</v>
+      </c>
+      <c r="F29" s="68">
+        <v>1</v>
+      </c>
       <c r="G29" s="42">
         <v>2</v>
       </c>
@@ -3670,14 +3982,14 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" ht="60">
+    <row r="30" spans="1:13" ht="30">
       <c r="A30" s="21" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="45">
+        <v>71</v>
+      </c>
+      <c r="C30" s="226">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
@@ -3685,9 +3997,11 @@
         <v>2</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="68"/>
+        <v>72</v>
+      </c>
+      <c r="F30" s="68">
+        <v>1</v>
+      </c>
       <c r="G30" s="42">
         <v>2</v>
       </c>
@@ -3702,12 +4016,12 @@
     </row>
     <row r="31" spans="1:13" ht="60">
       <c r="A31" s="21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="45">
+        <v>74</v>
+      </c>
+      <c r="C31" s="226">
         <f>2.75/3</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3715,9 +4029,11 @@
         <v>3</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="68"/>
+        <v>75</v>
+      </c>
+      <c r="F31" s="68">
+        <v>1</v>
+      </c>
       <c r="G31" s="42">
         <v>3</v>
       </c>
@@ -3731,10 +4047,10 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="242" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="243"/>
+      <c r="A32" s="253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="254"/>
       <c r="C32" s="84">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>8.25</v>
@@ -3746,7 +4062,7 @@
       <c r="E32" s="86"/>
       <c r="F32" s="87">
         <f>SUMPRODUCT(F28:F31,G28:G31)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G32" s="88">
         <f>SUM(G28:G31)</f>
@@ -3766,22 +4082,24 @@
       <c r="M32" s="93"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="244" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="240" t="s">
+      <c r="A33" s="255" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="257"/>
+      <c r="C33" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="241"/>
+      <c r="D33" s="252"/>
       <c r="E33" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="240" t="s">
+      <c r="F33" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="241"/>
-      <c r="H33" s="58"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="58" t="s">
+        <v>18</v>
+      </c>
       <c r="I33" s="56" t="s">
         <v>17</v>
       </c>
@@ -3790,23 +4108,27 @@
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="60">
+    <row r="34" spans="1:13" ht="30">
       <c r="A34" s="117" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C34" s="109">
-        <v>0</v>
+        <f>(1-0.25)/1</f>
+        <v>0.75</v>
       </c>
       <c r="D34" s="59">
         <v>1</v>
       </c>
       <c r="E34" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="104"/>
+        <v>79</v>
+      </c>
+      <c r="F34" s="104">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G34" s="63">
         <v>1</v>
       </c>
@@ -3821,10 +4143,10 @@
     </row>
     <row r="35" spans="1:13" ht="71.25" customHeight="1">
       <c r="A35" s="54" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C35" s="45">
         <f>(1-2*0.25)/1</f>
@@ -3834,13 +4156,18 @@
         <v>1</v>
       </c>
       <c r="E35" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="68"/>
+        <v>82</v>
+      </c>
+      <c r="F35" s="68">
+        <f>(1-0.25)/1</f>
+        <v>0.75</v>
+      </c>
       <c r="G35" s="42">
         <v>1</v>
       </c>
-      <c r="H35" s="69"/>
+      <c r="H35" s="69" t="s">
+        <v>83</v>
+      </c>
       <c r="I35" s="74"/>
       <c r="J35" s="44">
         <v>1</v>
@@ -3849,14 +4176,14 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="30">
+    <row r="36" spans="1:13" ht="45">
       <c r="A36" s="21" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="228">
+        <v>85</v>
+      </c>
+      <c r="C36" s="226">
         <f>(3-0.5)/3</f>
         <v>0.83333333333333337</v>
       </c>
@@ -3864,13 +4191,18 @@
         <v>3</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="68"/>
+        <v>86</v>
+      </c>
+      <c r="F36" s="243">
+        <f>(3-0.25)/3</f>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G36" s="42">
         <v>3</v>
       </c>
-      <c r="H36" s="69"/>
+      <c r="H36" s="69" t="s">
+        <v>87</v>
+      </c>
       <c r="I36" s="74"/>
       <c r="J36" s="44">
         <v>3</v>
@@ -3879,12 +4211,12 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="60">
+    <row r="37" spans="1:13" ht="90">
       <c r="A37" s="21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C37" s="45">
         <f>(3-3*0.25)/3</f>
@@ -3894,13 +4226,18 @@
         <v>3</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="68"/>
+        <v>90</v>
+      </c>
+      <c r="F37" s="243">
+        <f>(3-2*0.25)/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G37" s="42">
         <v>3</v>
       </c>
-      <c r="H37" s="69"/>
+      <c r="H37" s="69" t="s">
+        <v>91</v>
+      </c>
       <c r="I37" s="74"/>
       <c r="J37" s="44">
         <v>3</v>
@@ -3910,13 +4247,13 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="242" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="243"/>
+      <c r="A38" s="253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="254"/>
       <c r="C38" s="119">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D38" s="85">
         <f>SUM(D34:D37)</f>
@@ -3925,7 +4262,7 @@
       <c r="E38" s="86"/>
       <c r="F38" s="120">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G38" s="88">
         <f>SUM(G34:G37)</f>
@@ -3945,36 +4282,38 @@
       <c r="M38" s="93"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="244" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="245"/>
-      <c r="C39" s="240" t="s">
+      <c r="A39" s="255" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="256"/>
+      <c r="C39" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="241"/>
+      <c r="D39" s="252"/>
       <c r="E39" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="240" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="241"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="240" t="s">
+      <c r="G39" s="252"/>
+      <c r="H39" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="241"/>
+      <c r="J39" s="252"/>
       <c r="K39" s="58"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="45">
       <c r="A40" s="75" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C40" s="81">
         <v>0.5</v>
@@ -3983,9 +4322,11 @@
         <v>1</v>
       </c>
       <c r="E40" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="106"/>
+        <v>95</v>
+      </c>
+      <c r="F40" s="106">
+        <v>1</v>
+      </c>
       <c r="G40" s="107">
         <v>1</v>
       </c>
@@ -4000,10 +4341,10 @@
     </row>
     <row r="41" spans="1:13" ht="30">
       <c r="A41" s="21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C41" s="45">
         <v>1</v>
@@ -4012,7 +4353,9 @@
         <v>4</v>
       </c>
       <c r="E41" s="62"/>
-      <c r="F41" s="68"/>
+      <c r="F41" s="68">
+        <v>1</v>
+      </c>
       <c r="G41" s="42">
         <v>4</v>
       </c>
@@ -4027,10 +4370,10 @@
     </row>
     <row r="42" spans="1:13" ht="30">
       <c r="A42" s="21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C42" s="45">
         <v>1</v>
@@ -4039,11 +4382,16 @@
         <v>3</v>
       </c>
       <c r="E42" s="62"/>
-      <c r="F42" s="68"/>
+      <c r="F42" s="243">
+        <f>2.75/3</f>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G42" s="42">
         <v>3</v>
       </c>
-      <c r="H42" s="69"/>
+      <c r="H42" s="69" t="s">
+        <v>100</v>
+      </c>
       <c r="I42" s="74"/>
       <c r="J42" s="44">
         <v>3</v>
@@ -4052,14 +4400,14 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" ht="60">
+    <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="45">
+        <v>102</v>
+      </c>
+      <c r="C43" s="226">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
@@ -4067,9 +4415,11 @@
         <v>2</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="68"/>
+        <v>103</v>
+      </c>
+      <c r="F43" s="68">
+        <v>1</v>
+      </c>
       <c r="G43" s="42">
         <v>2</v>
       </c>
@@ -4083,10 +4433,10 @@
     </row>
     <row r="44" spans="1:13" ht="30">
       <c r="A44" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C44" s="35">
         <f>1.5/2</f>
@@ -4096,13 +4446,18 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>106</v>
+      </c>
+      <c r="F44" s="312">
+        <f>1.75/2</f>
+        <v>0.875</v>
+      </c>
       <c r="G44" s="33">
         <v>2</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="38" t="s">
+        <v>107</v>
+      </c>
       <c r="I44" s="39"/>
       <c r="J44" s="34">
         <v>2</v>
@@ -4113,12 +4468,12 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="21" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="35">
+        <v>109</v>
+      </c>
+      <c r="C45" s="236">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
@@ -4126,13 +4481,18 @@
         <v>3</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="37"/>
+        <v>110</v>
+      </c>
+      <c r="F45" s="312">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G45" s="33">
         <v>3</v>
       </c>
-      <c r="H45" s="38"/>
+      <c r="H45" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="I45" s="39"/>
       <c r="J45" s="34">
         <v>3</v>
@@ -4141,14 +4501,14 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="75">
+    <row r="46" spans="1:13" ht="45">
       <c r="A46" s="21" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="45">
+        <v>113</v>
+      </c>
+      <c r="C46" s="226">
         <f>1.75/3</f>
         <v>0.58333333333333337</v>
       </c>
@@ -4156,9 +4516,11 @@
         <v>3</v>
       </c>
       <c r="E46" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" s="68"/>
+        <v>114</v>
+      </c>
+      <c r="F46" s="68">
+        <v>1</v>
+      </c>
       <c r="G46" s="42">
         <v>3</v>
       </c>
@@ -4171,12 +4533,12 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="45">
       <c r="A47" s="21" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C47" s="45">
         <v>1</v>
@@ -4185,11 +4547,16 @@
         <v>6</v>
       </c>
       <c r="E47" s="62"/>
-      <c r="F47" s="68"/>
+      <c r="F47" s="243">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G47" s="42">
         <v>6</v>
       </c>
-      <c r="H47" s="69"/>
+      <c r="H47" s="69" t="s">
+        <v>117</v>
+      </c>
       <c r="I47" s="74"/>
       <c r="J47" s="44">
         <v>6</v>
@@ -4198,12 +4565,12 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="60">
+    <row r="48" spans="1:13" ht="45">
       <c r="A48" s="21" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C48" s="45">
         <f>2/8</f>
@@ -4213,9 +4580,11 @@
         <v>8</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="68"/>
+        <v>120</v>
+      </c>
+      <c r="F48" s="68">
+        <v>1</v>
+      </c>
       <c r="G48" s="42">
         <v>8</v>
       </c>
@@ -4228,12 +4597,12 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="90">
+    <row r="49" spans="1:13" ht="45">
       <c r="A49" s="21" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C49" s="45">
         <v>0.5</v>
@@ -4242,13 +4611,18 @@
         <v>6</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" s="68"/>
+        <v>123</v>
+      </c>
+      <c r="F49" s="68">
+        <f>4.5/6</f>
+        <v>0.75</v>
+      </c>
       <c r="G49" s="42">
         <v>6</v>
       </c>
-      <c r="H49" s="69"/>
+      <c r="H49" s="69" t="s">
+        <v>124</v>
+      </c>
       <c r="I49" s="74"/>
       <c r="J49" s="44">
         <v>6</v>
@@ -4259,10 +4633,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4271,7 +4645,9 @@
         <v>3</v>
       </c>
       <c r="E50" s="62"/>
-      <c r="F50" s="68"/>
+      <c r="F50" s="68">
+        <v>1</v>
+      </c>
       <c r="G50" s="42">
         <v>3</v>
       </c>
@@ -4285,10 +4661,10 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="242" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="243"/>
+      <c r="A51" s="253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="254"/>
       <c r="C51" s="129">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>28.5</v>
@@ -4300,7 +4676,7 @@
       <c r="E51" s="97"/>
       <c r="F51" s="120">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="G51" s="88">
         <f>SUM(G40:G50)</f>
@@ -4320,36 +4696,38 @@
       <c r="M51" s="93"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="244" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="246"/>
-      <c r="C52" s="240" t="s">
+      <c r="A52" s="255" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="257"/>
+      <c r="C52" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="241"/>
+      <c r="D52" s="252"/>
       <c r="E52" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="240" t="s">
+      <c r="F52" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="241"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="240" t="s">
+      <c r="G52" s="252"/>
+      <c r="H52" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="241"/>
+      <c r="J52" s="252"/>
       <c r="K52" s="58"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" ht="30">
       <c r="A53" s="75" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C53" s="109">
         <f>2/2</f>
@@ -4359,7 +4737,10 @@
         <v>2</v>
       </c>
       <c r="E53" s="110"/>
-      <c r="F53" s="106"/>
+      <c r="F53" s="106">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G53" s="107">
         <v>2</v>
       </c>
@@ -4372,28 +4753,33 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" ht="45">
+    <row r="54" spans="1:13" ht="30">
       <c r="A54" s="21" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="45">
+        <v>131</v>
+      </c>
+      <c r="C54" s="226">
         <f>(2-3*0.25)/2</f>
         <v>0.625</v>
       </c>
       <c r="D54" s="41">
         <v>2</v>
       </c>
-      <c r="E54" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="68"/>
+      <c r="E54" s="62">
+        <v>5</v>
+      </c>
+      <c r="F54" s="68">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G54" s="42">
         <v>2</v>
       </c>
-      <c r="H54" s="69"/>
+      <c r="H54" s="69" t="s">
+        <v>132</v>
+      </c>
       <c r="I54" s="127"/>
       <c r="J54" s="121">
         <v>2</v>
@@ -4404,10 +4790,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="54" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C55" s="45">
         <f>1/1</f>
@@ -4417,7 +4803,10 @@
         <v>1</v>
       </c>
       <c r="E55" s="62"/>
-      <c r="F55" s="68"/>
+      <c r="F55" s="68">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G55" s="42">
         <v>1</v>
       </c>
@@ -4432,10 +4821,10 @@
     </row>
     <row r="56" spans="1:13" ht="105">
       <c r="A56" s="54" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C56" s="45">
         <f>1/1</f>
@@ -4445,9 +4834,12 @@
         <v>4</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="68"/>
+        <v>137</v>
+      </c>
+      <c r="F56" s="68">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
       <c r="G56" s="42">
         <v>4</v>
       </c>
@@ -4462,10 +4854,10 @@
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C57" s="45">
         <f>2/2</f>
@@ -4475,7 +4867,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="62"/>
-      <c r="F57" s="68"/>
+      <c r="F57" s="68">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G57" s="42">
         <v>2</v>
       </c>
@@ -4489,10 +4884,10 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="242" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="243"/>
+      <c r="A58" s="253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="254"/>
       <c r="C58" s="95">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>10.25</v>
@@ -4504,7 +4899,7 @@
       <c r="E58" s="97"/>
       <c r="F58" s="98">
         <f>SUMPRODUCT(F53:F57,G53:G57)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G58" s="99">
         <f>SUM(G53:G57)</f>
@@ -4524,30 +4919,30 @@
       <c r="M58" s="93"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="268" t="s">
+      <c r="A59" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="269"/>
-      <c r="C59" s="269"/>
-      <c r="D59" s="269"/>
-      <c r="E59" s="269"/>
-      <c r="F59" s="269"/>
-      <c r="G59" s="269"/>
-      <c r="H59" s="269"/>
-      <c r="I59" s="269"/>
-      <c r="J59" s="269"/>
-      <c r="K59" s="270"/>
+      <c r="B59" s="280"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
+      <c r="K59" s="281"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="271" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="272"/>
+      <c r="A60" s="282" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="283"/>
       <c r="C60" s="130">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
-        <v>77</v>
+        <v>78.25</v>
       </c>
       <c r="D60" s="60">
         <f t="shared" si="0"/>
@@ -4556,7 +4951,7 @@
       <c r="E60" s="61"/>
       <c r="F60" s="131">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93.9</v>
       </c>
       <c r="G60" s="66">
         <f t="shared" si="0"/>
@@ -4576,28 +4971,28 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="273" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" s="274"/>
-      <c r="C61" s="275">
+      <c r="A61" s="284" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="285"/>
+      <c r="C61" s="286">
         <f>C60/D60</f>
-        <v>0.77</v>
-      </c>
-      <c r="D61" s="276"/>
-      <c r="E61" s="277"/>
-      <c r="F61" s="278">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="D61" s="287"/>
+      <c r="E61" s="288"/>
+      <c r="F61" s="289">
         <f>F60/G60</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="279"/>
-      <c r="H61" s="280"/>
-      <c r="I61" s="281">
+        <v>0.93900000000000006</v>
+      </c>
+      <c r="G61" s="290"/>
+      <c r="H61" s="291"/>
+      <c r="I61" s="292">
         <f>I60/J60</f>
         <v>0</v>
       </c>
-      <c r="J61" s="282"/>
-      <c r="K61" s="283"/>
+      <c r="J61" s="293"/>
+      <c r="K61" s="294"/>
       <c r="L61" s="133"/>
       <c r="M61" s="133"/>
     </row>
@@ -4670,10 +5065,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:G56"/>
+  <dimension ref="A2:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4683,22 +5078,22 @@
     <col min="3" max="4" width="9.140625" style="135"/>
     <col min="5" max="5" width="11" style="135" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="135" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" style="135" customWidth="1"/>
+    <col min="7" max="7" width="94.5703125" style="135" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="135"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="284" t="s">
+    <row r="2" spans="1:9" ht="18.75">
+      <c r="A2" s="295" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="136"/>
       <c r="B3" s="136"/>
       <c r="C3" s="137"/>
@@ -4707,9 +5102,9 @@
       <c r="F3" s="136"/>
       <c r="G3" s="137"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="134" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B4" s="134"/>
       <c r="C4" s="134"/>
@@ -4718,55 +5113,55 @@
       <c r="F4" s="134"/>
       <c r="G4" s="134"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="292" t="s">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:9" ht="24" thickBot="1">
+      <c r="A6" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="294"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="305"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="157" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="295"/>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="296"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="206" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="185" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="306"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="307"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="204" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="185" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="185" t="s">
+      <c r="C8" s="183" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="185" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="185" t="s">
+      <c r="E8" s="183" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="186" t="s">
+      <c r="G8" s="184" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="145" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B9" s="138">
         <f>1/1</f>
@@ -4782,44 +5177,44 @@
         <f t="shared" ref="E9:E19" si="0">B9*C9*D9</f>
         <v>3.75</v>
       </c>
-      <c r="F9" s="220" t="s">
+      <c r="F9" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="224" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="120" customHeight="1">
-      <c r="A10" s="187" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="188">
-        <f>3.5/5</f>
-        <v>0.7</v>
-      </c>
-      <c r="C10" s="235">
-        <v>1</v>
-      </c>
-      <c r="D10" s="188">
+      <c r="G9" s="222" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="112.5" customHeight="1">
+      <c r="A10" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="186">
+        <f>(5-0.75)/5</f>
+        <v>0.85</v>
+      </c>
+      <c r="C10" s="233">
+        <v>1</v>
+      </c>
+      <c r="D10" s="186">
         <v>5</v>
       </c>
-      <c r="E10" s="188">
+      <c r="E10" s="186">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="F10" s="225" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="222" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="150">
+        <v>4.25</v>
+      </c>
+      <c r="F10" s="223" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="240" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="300">
       <c r="A11" s="145" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="229">
-        <f>15.5/18</f>
+        <v>151</v>
+      </c>
+      <c r="B11" s="227">
+        <f>(18-2.5)/18</f>
         <v>0.86111111111111116</v>
       </c>
       <c r="C11" s="138">
@@ -4832,41 +5227,42 @@
         <f t="shared" si="0"/>
         <v>11.625</v>
       </c>
-      <c r="F11" s="227" t="s">
+      <c r="F11" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="224" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="103.5" customHeight="1">
-      <c r="A12" s="187" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="233">
+      <c r="G11" s="222" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="136"/>
+    </row>
+    <row r="12" spans="1:9" ht="103.5" customHeight="1">
+      <c r="A12" s="185" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="231">
         <f>14.5/16</f>
         <v>0.90625</v>
       </c>
-      <c r="C12" s="235">
+      <c r="C12" s="233">
         <v>0.75</v>
       </c>
-      <c r="D12" s="188">
+      <c r="D12" s="186">
         <v>16</v>
       </c>
-      <c r="E12" s="188">
+      <c r="E12" s="186">
         <f t="shared" si="0"/>
         <v>10.875</v>
       </c>
-      <c r="F12" s="226" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="222" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="75">
+      <c r="F12" s="224" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="220" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="145" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B13" s="138">
         <f>(10-1)/10</f>
@@ -4882,18 +5278,18 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="F13" s="227" t="s">
+      <c r="F13" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="224" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="90">
-      <c r="A14" s="230" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="234">
+      <c r="G13" s="222" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90">
+      <c r="A14" s="228" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="232">
         <f>6.5/8</f>
         <v>0.8125</v>
       </c>
@@ -4907,45 +5303,47 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F14" s="232" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="231" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="75">
-      <c r="A15" s="187" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="188">
-        <f>10/12</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C15" s="188">
+      <c r="F14" s="230" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="229" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="270">
+      <c r="A15" s="185" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="186">
+        <f>(12-3)/12</f>
         <v>0.75</v>
       </c>
-      <c r="D15" s="188">
+      <c r="C15" s="186">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="186">
         <v>12</v>
       </c>
-      <c r="E15" s="188">
+      <c r="E15" s="186">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="F15" s="226" t="s">
+        <v>6.75</v>
+      </c>
+      <c r="F15" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="222" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="180">
+      <c r="G15" s="220" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="238"/>
+      <c r="I15" s="239"/>
+    </row>
+    <row r="16" spans="1:9" ht="120">
       <c r="A16" s="145" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B16" s="138">
-        <f>8/10</f>
-        <v>0.8</v>
+        <f>8.5/10</f>
+        <v>0.85</v>
       </c>
       <c r="C16" s="138">
         <v>1</v>
@@ -4955,48 +5353,48 @@
       </c>
       <c r="E16" s="138">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F16" s="227" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="224" t="s">
-        <v>147</v>
+        <v>8.5</v>
+      </c>
+      <c r="F16" s="225" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="222" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="187" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="188">
+      <c r="A17" s="185" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="186">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="C17" s="188">
+      <c r="C17" s="186">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="D17" s="188">
+      <c r="D17" s="186">
         <v>4</v>
       </c>
-      <c r="E17" s="188">
+      <c r="E17" s="186">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F17" s="221" t="s">
+      <c r="F17" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="189"/>
+      <c r="G17" s="187"/>
     </row>
     <row r="18" spans="1:7" ht="105">
       <c r="A18" s="145" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="229">
+        <v>164</v>
+      </c>
+      <c r="B18" s="227">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C18" s="236">
+      <c r="C18" s="234">
         <v>0.75</v>
       </c>
       <c r="D18" s="138">
@@ -5006,71 +5404,71 @@
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="F18" s="220" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="224" t="s">
-        <v>150</v>
+      <c r="F18" s="218" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="222" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="187" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="233">
+      <c r="A19" s="185" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="231">
         <f>4/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C19" s="188">
-        <v>1</v>
-      </c>
-      <c r="D19" s="188">
+      <c r="C19" s="186">
+        <v>1</v>
+      </c>
+      <c r="D19" s="186">
         <v>6</v>
       </c>
-      <c r="E19" s="188">
+      <c r="E19" s="186">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F19" s="221" t="s">
+      <c r="F19" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="222" t="s">
-        <v>152</v>
+      <c r="G19" s="220" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="167" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="297"/>
-      <c r="C20" s="297"/>
-      <c r="D20" s="219">
+      <c r="A20" s="165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="308"/>
+      <c r="C20" s="308"/>
+      <c r="D20" s="217">
         <f>SUM(D9:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="168">
+      <c r="E20" s="166">
         <f>SUM(E9:E19)/D20 + E22*D22 + E21*D21</f>
-        <v>0.70250000000000001</v>
-      </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="169"/>
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="F20" s="168"/>
+      <c r="G20" s="167"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="187" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="191">
+      <c r="A21" s="185" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="189">
         <v>-0.15</v>
       </c>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="192"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="190"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="146" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B22" s="147"/>
       <c r="C22" s="147"/>
@@ -5082,283 +5480,325 @@
       <c r="G22" s="149"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="298" t="s">
+      <c r="A23" s="309" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="300"/>
+      <c r="B23" s="310"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="311"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="285"/>
-      <c r="C24" s="285"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="285"/>
-      <c r="F24" s="285"/>
-      <c r="G24" s="286"/>
+        <v>143</v>
+      </c>
+      <c r="B24" s="296"/>
+      <c r="C24" s="296"/>
+      <c r="D24" s="296"/>
+      <c r="E24" s="296"/>
+      <c r="F24" s="296"/>
+      <c r="G24" s="297"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="205" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="193" t="s">
+      <c r="A25" s="203" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="193" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="193" t="s">
+      <c r="C25" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="193" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="193" t="s">
+      <c r="E25" s="191" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="194" t="s">
+      <c r="G25" s="192" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="90">
       <c r="A26" s="150" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B26" s="139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="139">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D26" s="139">
         <v>24</v>
       </c>
       <c r="E26" s="139">
         <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="139"/>
-      <c r="G26" s="158"/>
+        <v>18</v>
+      </c>
+      <c r="F26" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="244" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="195" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="196">
-        <v>0</v>
-      </c>
-      <c r="C27" s="196">
-        <v>0</v>
-      </c>
-      <c r="D27" s="196">
+      <c r="A27" s="193" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="194">
+        <v>1</v>
+      </c>
+      <c r="C27" s="194">
+        <v>1</v>
+      </c>
+      <c r="D27" s="194">
         <v>8</v>
       </c>
-      <c r="E27" s="196">
+      <c r="E27" s="194">
         <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="196"/>
-      <c r="G27" s="197"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="194" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="195"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="150" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B28" s="139">
-        <v>0</v>
+        <f>(10-1)/10</f>
+        <v>0.9</v>
       </c>
       <c r="C28" s="139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="139">
         <v>10</v>
       </c>
       <c r="E28" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="139"/>
-      <c r="G28" s="158"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="195" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="196">
-        <v>0</v>
-      </c>
-      <c r="C29" s="196">
-        <v>0</v>
-      </c>
-      <c r="D29" s="196">
+        <v>9</v>
+      </c>
+      <c r="F28" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="241" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="193" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="194">
+        <v>1</v>
+      </c>
+      <c r="C29" s="194">
+        <v>1</v>
+      </c>
+      <c r="D29" s="194">
         <v>8</v>
       </c>
-      <c r="E29" s="196">
+      <c r="E29" s="194">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="196"/>
-      <c r="G29" s="197"/>
-    </row>
-    <row r="30" spans="1:7" ht="30">
+        <v>8</v>
+      </c>
+      <c r="F29" s="194" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="242"/>
+    </row>
+    <row r="30" spans="1:7" ht="210">
       <c r="A30" s="150" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B30" s="139">
-        <v>0</v>
+        <f>10/10</f>
+        <v>1</v>
       </c>
       <c r="C30" s="139">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="139">
         <v>10</v>
       </c>
       <c r="E30" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="139"/>
-      <c r="G30" s="158"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="195" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="196">
-        <v>0</v>
-      </c>
-      <c r="C31" s="196">
-        <v>0</v>
-      </c>
-      <c r="D31" s="196">
+        <v>5</v>
+      </c>
+      <c r="F30" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="244" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="315">
+      <c r="A31" s="193" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="248">
+        <f>(12-2.5)/12</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C31" s="194">
+        <v>1</v>
+      </c>
+      <c r="D31" s="194">
         <v>12</v>
       </c>
-      <c r="E31" s="196">
+      <c r="E31" s="194">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="196"/>
-      <c r="G31" s="197"/>
-    </row>
-    <row r="32" spans="1:7">
+        <v>9.5</v>
+      </c>
+      <c r="F31" s="194" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="247" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="150">
       <c r="A32" s="150" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B32" s="139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="139">
         <v>10</v>
       </c>
       <c r="E32" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="139"/>
-      <c r="G32" s="158"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="195" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="196">
-        <v>0</v>
-      </c>
-      <c r="C33" s="196">
-        <v>0</v>
-      </c>
-      <c r="D33" s="196">
+        <v>10</v>
+      </c>
+      <c r="F32" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="244" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="180">
+      <c r="A33" s="193" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="194">
+        <v>1</v>
+      </c>
+      <c r="C33" s="194">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="194">
         <v>4</v>
       </c>
-      <c r="E33" s="196">
+      <c r="E33" s="194">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="196"/>
-      <c r="G33" s="197"/>
-    </row>
-    <row r="34" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F33" s="194" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="247" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="150">
       <c r="A34" s="150" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B34" s="139">
-        <v>0</v>
+        <f>(10-1)/10</f>
+        <v>0.9</v>
       </c>
       <c r="C34" s="139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="139">
         <v>10</v>
       </c>
       <c r="E34" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="139"/>
-      <c r="G34" s="158"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="150" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="139">
-        <v>0</v>
-      </c>
-      <c r="C35" s="139">
-        <v>0</v>
-      </c>
-      <c r="D35" s="139">
+        <v>9</v>
+      </c>
+      <c r="F34" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="249" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="135">
+      <c r="A35" s="245" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="246">
+        <v>1</v>
+      </c>
+      <c r="C35" s="246">
+        <v>1</v>
+      </c>
+      <c r="D35" s="246">
         <v>4</v>
       </c>
-      <c r="E35" s="139">
+      <c r="E35" s="246">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="139"/>
-      <c r="G35" s="158"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="163" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="164"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164">
+        <v>4</v>
+      </c>
+      <c r="F35" s="246" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="250" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A36" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163">
         <f>SUM(D26:D35)</f>
         <v>100</v>
       </c>
-      <c r="E36" s="165">
+      <c r="E36" s="164">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="165"/>
-      <c r="G36" s="166"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F36" s="164"/>
+      <c r="G36" s="313" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="195" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="198"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="199">
+      <c r="A37" s="193" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="196"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="197">
         <v>-0.15</v>
       </c>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="200"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="198"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="150" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B38" s="140"/>
       <c r="C38" s="140"/>
@@ -5370,66 +5810,66 @@
       <c r="G38" s="151"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="201" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="202"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="203">
+      <c r="A39" s="199" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="200"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="201">
         <v>-0.05</v>
       </c>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="204"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="202"/>
     </row>
     <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="287" t="s">
+      <c r="A40" s="298" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="288"/>
-      <c r="C40" s="288"/>
-      <c r="D40" s="288"/>
-      <c r="E40" s="288"/>
-      <c r="F40" s="288"/>
-      <c r="G40" s="289"/>
+      <c r="B40" s="299"/>
+      <c r="C40" s="299"/>
+      <c r="D40" s="299"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="299"/>
+      <c r="G40" s="300"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="290"/>
-      <c r="C41" s="290"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="291"/>
+        <v>143</v>
+      </c>
+      <c r="B41" s="301"/>
+      <c r="C41" s="301"/>
+      <c r="D41" s="301"/>
+      <c r="E41" s="301"/>
+      <c r="F41" s="301"/>
+      <c r="G41" s="302"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="174" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="175" t="s">
+      <c r="A42" s="172" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="175" t="s">
+      <c r="C42" s="173" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="175" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="176" t="s">
+      <c r="E42" s="173" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="177" t="s">
+      <c r="G42" s="175" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="152" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B43" s="142">
         <v>0</v>
@@ -5448,28 +5888,28 @@
       <c r="G43" s="153"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="171" t="s">
-        <v>169</v>
-      </c>
-      <c r="B44" s="172">
+      <c r="A44" s="169" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="170">
         <v>0</v>
       </c>
-      <c r="C44" s="172">
+      <c r="C44" s="170">
         <v>0</v>
       </c>
-      <c r="D44" s="172">
+      <c r="D44" s="170">
         <v>10</v>
       </c>
-      <c r="E44" s="172">
+      <c r="E44" s="170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="172"/>
-      <c r="G44" s="173"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="171"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="152" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B45" s="142">
         <v>0</v>
@@ -5488,28 +5928,28 @@
       <c r="G45" s="153"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B46" s="172">
+      <c r="A46" s="169" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="170">
         <v>0</v>
       </c>
-      <c r="C46" s="172">
+      <c r="C46" s="170">
         <v>0</v>
       </c>
-      <c r="D46" s="172">
+      <c r="D46" s="170">
         <v>18</v>
       </c>
-      <c r="E46" s="172">
+      <c r="E46" s="170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="172"/>
-      <c r="G46" s="173"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="171"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="152" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B47" s="142">
         <v>0</v>
@@ -5528,28 +5968,28 @@
       <c r="G47" s="153"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="171" t="s">
-        <v>173</v>
-      </c>
-      <c r="B48" s="172">
+      <c r="A48" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" s="170">
         <v>0</v>
       </c>
-      <c r="C48" s="172">
+      <c r="C48" s="170">
         <v>0</v>
       </c>
-      <c r="D48" s="172">
+      <c r="D48" s="170">
         <v>6</v>
       </c>
-      <c r="E48" s="172">
+      <c r="E48" s="170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="172"/>
-      <c r="G48" s="173"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="171"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="152" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B49" s="142">
         <v>0</v>
@@ -5568,28 +6008,28 @@
       <c r="G49" s="153"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="171" t="s">
-        <v>175</v>
-      </c>
-      <c r="B50" s="172">
+      <c r="A50" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="170">
         <v>0</v>
       </c>
-      <c r="C50" s="172">
+      <c r="C50" s="170">
         <v>0</v>
       </c>
-      <c r="D50" s="172">
+      <c r="D50" s="170">
         <v>6</v>
       </c>
-      <c r="E50" s="172">
+      <c r="E50" s="170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="172"/>
-      <c r="G50" s="173"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="171"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="152" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B51" s="142">
         <v>0</v>
@@ -5608,58 +6048,58 @@
       <c r="G51" s="153"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="171" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="172">
+      <c r="A52" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="170">
         <v>0</v>
       </c>
-      <c r="C52" s="172">
+      <c r="C52" s="170">
         <v>0</v>
       </c>
-      <c r="D52" s="172">
+      <c r="D52" s="170">
         <v>4</v>
       </c>
-      <c r="E52" s="172">
+      <c r="E52" s="170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F52" s="172"/>
-      <c r="G52" s="173"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="171"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="159" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="160"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="160">
+      <c r="A53" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="159"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="159">
         <f>SUM(D43:D52)</f>
         <v>100</v>
       </c>
-      <c r="E53" s="161">
+      <c r="E53" s="160">
         <f>SUM(E43:E52)/D53 + D54*E54  + D55*E55 + D56*E56</f>
         <v>0</v>
       </c>
-      <c r="F53" s="161"/>
-      <c r="G53" s="162"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="161"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="171" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="178"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="179">
+      <c r="A54" s="169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="176"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="177">
         <v>-0.15</v>
       </c>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="180"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="178"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="152" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B55" s="143"/>
       <c r="C55" s="143"/>
@@ -5671,17 +6111,17 @@
       <c r="G55" s="154"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A56" s="181" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="182"/>
-      <c r="C56" s="182"/>
-      <c r="D56" s="183">
+      <c r="A56" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="180"/>
+      <c r="C56" s="180"/>
+      <c r="D56" s="181">
         <v>-0.05</v>
       </c>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="184"/>
+      <c r="E56" s="180"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5713,21 +6153,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5859,14 +6284,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
--- a/Equipe301.xlsx
+++ b/Equipe301.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DC2B3F-2124-4287-8DB9-722830B1A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2E87B3-A0CB-4C63-865C-FFCAFB2E5326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="219">
   <si>
     <t>Fonct.</t>
   </si>
@@ -133,6 +133,9 @@
     <t>-0.5 ReserveTesting:setReserve</t>
   </si>
   <si>
+    <t>-0.2 Server:DatabaseService.database</t>
+  </si>
+  <si>
     <t>1.4 Accessibilité</t>
   </si>
   <si>
@@ -146,6 +149,10 @@
   </si>
   <si>
     <t>Client:CommandService:wordRegex, rackRegex, ...</t>
+  </si>
+  <si>
+    <t>-0.2 Server:ReserveHandler.reserve
+-0 Server:BestStatsHandler.baseScore</t>
   </si>
   <si>
     <t>1.5 Valeur par défaut</t>
@@ -167,6 +174,14 @@
 -0 Client:InitGameComponent.constructor:58</t>
   </si>
   <si>
+    <t>-0 Client:BestScoreComponent
+-0 Client:RackComponent
+-0 Client:GamePageComponent
+-0 Client:MainPageComponent
+-0.2 Client:AdminService
+-0.2 Client:GoalService</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -209,6 +224,9 @@
     <t>-0.25 messaging.service.ts:13</t>
   </si>
   <si>
+    <t>-0.25 play-generator.ts: findWord() 4 parametres</t>
+  </si>
+  <si>
     <t>2.4 Fonction pure</t>
   </si>
   <si>
@@ -237,6 +255,11 @@
     <t>-0 Server:BoardHandler.retrieveNewLetters</t>
   </si>
   <si>
+    <t>-0.25 Server:BoardHandler.retrieveNewLetters
+-0.25 Server:DatabaseService.run
+-0 Server:DictionnaryService.getWords</t>
+  </si>
+  <si>
     <t>3.2 Valeurs limites</t>
   </si>
   <si>
@@ -289,6 +312,9 @@
   </si>
   <si>
     <t>-0.25 lettes.ts:6</t>
+  </si>
+  <si>
+    <t>-0.25 virtual.player.service.ts: _gameConfig, _id</t>
   </si>
   <si>
     <t>5. Expression booléennes</t>
@@ -316,6 +342,10 @@
   <si>
     <t>-0 Client:NameValidator:26
 -0.25 Client:BoardComponent:133, 183</t>
+  </si>
+  <si>
+    <t>-0 Server:ManyLettersInRow:35 (et toutes les autres classes qui implémentent PlacementNotifier)
+-0.25 Server:GameService:156</t>
   </si>
   <si>
     <t>5.3 Opérateurs ternaires</t>
@@ -352,6 +382,11 @@
 -0.25 Server:GameService:116</t>
   </si>
   <si>
+    <t>-0 Client:BoardService:56
+-0.25 Server:PlacePalindrome:27
+-0 Server:SessionStatsHandler</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -411,7 +446,7 @@
     <t>-1 command.service.ts:28</t>
   </si>
   <si>
-    <t>-0.5 commands.service.ts:50,53,56....</t>
+    <t>-0 commands.service.ts:50,53,56....</t>
   </si>
   <si>
     <t>6.7 Utilisation des classes et interfaces</t>
@@ -502,6 +537,10 @@
   </si>
   <si>
     <t>-0.25 ''fixed ngModel''</t>
+  </si>
+  <si>
+    <t>128 MR?
+-0 1 MR merged without approval</t>
   </si>
   <si>
     <t>7.5 Fichiers</t>
@@ -789,28 +828,89 @@
     <t>3.2 Mode admin</t>
   </si>
   <si>
+    <t>Test: 
+AdminPageComponent  - resetSettings() pas tester. 
+Pas besoin de tester: window.location.reload() mais tester l'appel de la methode et l'execution de la promesse.</t>
+  </si>
+  <si>
     <t>3.3. Joueur virtuel expert</t>
   </si>
   <si>
+    <t>- Fonctionnalité -
+1. Possible de sélectionner JV expert lors de l'initialisation: Oui 2. Nom du JV choisi dans une liste de 3: Oui 3. Liste différente pour chaque mode de jeu: Oui 4. Le JV à un nom différent du joueur: Oui 5. JV expert fonctionnel: Oui 6. Le JV place, saute son tour et échange: Oui 7. Le JV choisit le placement qui rapporte le maximum de points: Oui 8. Le JV échange toutes ses lettres s'il ne peut pas faire un placement: Oui 9. Le JV échange le plus de lettres possible si la réserve contient moins que 7 lettres: Oui 10. Les points son bien calculés: Oui 11. Le JV joue après 3 secondes: Oui 12. Le JV passe son tour après 20 secondes: Non 13. Toutes les actions du JV sont affichées dans la boite de communication: Oui 14. Le système affiche 3 possibilités de placement lorsque l'affichage de débogage est activé seulement si le joueur fait un placement: Oui 15. L'affichage des possibilités est en ordre décroissant: Oui 16. Respect du format d'affichage (1er ligne:toutes les lettres XY:L, pointage à la fin, 2e ligne: tous les mots formés par ce placement): Oui
+- Test -
+-- Client --
+-- Server --
+VirtualPlayer:90%</t>
+  </si>
+  <si>
     <t>3.4 Mode LOG2990 - Objectifs publics</t>
   </si>
   <si>
+    <t>- Fonctionnalité -
+1. LOG2990 en solo et multijoueur: Oui
+2. 8 objectifs différents: Oui
+3. Affichage des 2 objectifs publics: Oui
+4. Sélection aléatoire des objectifs publics: Oui
+5. Les objectifs privés sont différents: Oui
+6. Seulement possible de compléter l'objectif 1 fois: Oui
+7. Bon pointage: Oui
+8. JV peut compléter un objectif: Oui
+9. Les 2 joueurs peuvent compléter l'objectif: Oui
+10. Affichage de l'objectif comme étant complété: Oui
+- Test - 
+-- Client -- OK
+-- Server -- OK</t>
+  </si>
+  <si>
     <t>3.5 Mode LOG2990 - Objectifs privés</t>
   </si>
   <si>
+    <t>- Fonctionnalité - 
+1. LOG2990 en solo et multijoueur: Oui
+2. 8 objectifs différents: Oui
+3. Affichage de 1 objectif privé: Oui
+4. Sélection aléatoire de l'objectif privé: Oui
+5. Les objectifs privés sont différents: Oui
+6. Seulement possible de compléter l'objectif 1 fois: Oui
+7. Bon pointage: Oui
+8. JV peut compléter un objectif: Oui
+9. Affichage de l'objectif aux 2 joueurs lorsque l'objectif est complété: OK
+- Test - 
+idem public</t>
+  </si>
+  <si>
     <t>3.6 Placement aléatoire dans une partie</t>
   </si>
   <si>
     <t>3.7 Téléverser un nouveau dictionnaire</t>
   </si>
   <si>
+    <t xml:space="preserve">Test: 
+DictionaryService </t>
+  </si>
+  <si>
     <t>3.8 Paramètres de partie (dictionnaire)</t>
   </si>
   <si>
     <t>3.9 Abandonner une partie multijoueur</t>
   </si>
   <si>
+    <t>-0.5  Le nom du JV doit provenir de la liste des noms définis dans le système.</t>
+  </si>
+  <si>
     <t>3.10 Commande aide</t>
+  </si>
+  <si>
+    <t>- Fonctionnalité -
+1. !aide fonctionne: oui
+2. Affichage seulement pour le jouer qui a fait la commande: oui
+- Test -
+-- Client -- OK
+-- Server -- N/A</t>
+  </si>
+  <si>
+    <t>enlever des points car il faut jouer dans le code pour faire fonctionner les tests serveur</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1797,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2051,28 +2151,10 @@
     <xf numFmtId="49" fontId="17" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2437,138 +2519,156 @@
     <xf numFmtId="49" fontId="0" fillId="28" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2618,9 +2718,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3018,7 +3115,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3031,7 +3128,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="215"/>
+      <c r="A3" s="209"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3138,7 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="199" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3052,18 +3149,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="207">
+      <c r="B4" s="201">
         <f>(Fonctionnalités!E20)</f>
         <v>0.70750000000000002</v>
       </c>
-      <c r="C4" s="208">
+      <c r="C4" s="202">
         <f>'Assurance Qualité'!C61</f>
         <v>0.78249999999999997</v>
       </c>
-      <c r="D4" s="208">
+      <c r="D4" s="202">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
         <v>0.73750000000000004</v>
       </c>
@@ -3076,51 +3173,51 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="210">
+      <c r="B5" s="204">
         <f>(Fonctionnalités!E36)</f>
         <v>0.83499999999999996</v>
       </c>
-      <c r="C5" s="211">
+      <c r="C5" s="205">
         <f>'Assurance Qualité'!F61</f>
-        <v>0.93900000000000006</v>
-      </c>
-      <c r="D5" s="211">
+        <v>0.94400000000000006</v>
+      </c>
+      <c r="D5" s="205">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.87660000000000005</v>
+        <v>0.87860000000000005</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>21.915000000000003</v>
+        <v>21.965</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="213">
+      <c r="B6" s="207">
         <f>(Fonctionnalités!E53)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="214">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="C6" s="208">
         <f>'Assurance Qualité'!I61</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="214">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D6" s="208">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="F6" s="13">
         <v>20</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.826000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3129,13 +3226,15 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14">
+        <v>0.92</v>
+      </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.2000000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -3148,8 +3247,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3157,96 +3256,96 @@
     <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.140625" style="17" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="17" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="43.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="17" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="53.28515625" style="17" customWidth="1"/>
     <col min="12" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="16" width="15.7109375" customWidth="1"/>
     <col min="17" max="1029" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="279" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
+      <c r="B4" s="279"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="279"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="279"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="216"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="216"/>
+      <c r="E5" s="210"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="216"/>
+      <c r="H5" s="210"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="216"/>
+      <c r="K5" s="210"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="265" t="s">
+      <c r="A6" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="277" t="s">
+      <c r="B6" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="267" t="s">
+      <c r="C6" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="269" t="s">
+      <c r="D6" s="274"/>
+      <c r="E6" s="274"/>
+      <c r="F6" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="270"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="274" t="s">
+      <c r="G6" s="276"/>
+      <c r="H6" s="277"/>
+      <c r="I6" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="275"/>
-      <c r="K6" s="276"/>
+      <c r="J6" s="281"/>
+      <c r="K6" s="282"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="264"/>
-      <c r="P6" s="264"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="270"/>
+      <c r="P6" s="270"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="266"/>
-      <c r="B7" s="278"/>
+      <c r="A7" s="272"/>
+      <c r="B7" s="284"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -3276,53 +3375,53 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="209"/>
+      <c r="Q7" s="209"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="255" t="s">
+      <c r="A8" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="256"/>
-      <c r="C8" s="251" t="s">
+      <c r="B8" s="289"/>
+      <c r="C8" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="252"/>
+      <c r="D8" s="294"/>
       <c r="E8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="251" t="s">
+      <c r="F8" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="252"/>
+      <c r="G8" s="294"/>
       <c r="H8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="251" t="s">
+      <c r="I8" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="252"/>
+      <c r="J8" s="294"/>
       <c r="K8" s="58"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="105">
+    <row r="9" spans="1:17" ht="210">
       <c r="A9" s="75" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="221">
+      <c r="C9" s="215">
         <f>(3-2*0.5)/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D9" s="47">
         <v>3</v>
       </c>
-      <c r="E9" s="235" t="s">
+      <c r="E9" s="229" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="51">
@@ -3335,7 +3434,10 @@
       <c r="H9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="53">
+        <f>(3-0)/3</f>
+        <v>1</v>
+      </c>
       <c r="J9" s="49">
         <v>3</v>
       </c>
@@ -3343,7 +3445,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="45">
+    <row r="10" spans="1:17" ht="60">
       <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
@@ -3366,7 +3468,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <f>(2-0)/2</f>
+        <v>1</v>
+      </c>
       <c r="J10" s="34">
         <v>2</v>
       </c>
@@ -3381,7 +3486,7 @@
       <c r="B11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="236">
+      <c r="C11" s="230">
         <f>(3-0.5)/3</f>
         <v>0.83333333333333337</v>
       </c>
@@ -3399,20 +3504,25 @@
         <v>3</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="I11" s="246">
+        <f>(3-0.2)/3</f>
+        <v>0.93333333333333324</v>
+      </c>
       <c r="J11" s="34">
         <v>3</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:17" ht="198.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="35">
         <f>(2-1)/2</f>
@@ -3422,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="37">
         <f>2/2</f>
@@ -3432,22 +3542,27 @@
         <v>2</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="39"/>
+        <v>32</v>
+      </c>
+      <c r="I12" s="39">
+        <f>(2-0.2)/2</f>
+        <v>0.9</v>
+      </c>
       <c r="J12" s="34">
         <v>2</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="75">
+    <row r="13" spans="1:17" ht="225">
       <c r="A13" s="21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="35">
         <f>(4-2)/4</f>
@@ -3457,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="37">
         <f>(4-3*0.2)/4</f>
@@ -3467,21 +3582,26 @@
         <v>4</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="I13" s="39">
+        <f>(4-2*0.2)/4</f>
+        <v>0.9</v>
+      </c>
       <c r="J13" s="34">
         <v>4</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="253" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="254"/>
+      <c r="A14" s="285" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="286"/>
       <c r="C14" s="84">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>9.5</v>
@@ -3502,7 +3622,7 @@
       <c r="H14" s="89"/>
       <c r="I14" s="90">
         <f>SUMPRODUCT(I9:I13,J9:J13)</f>
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="J14" s="91">
         <f>SUM(J9:J13)</f>
@@ -3513,40 +3633,40 @@
       <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="260" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="261"/>
-      <c r="C15" s="251" t="s">
+      <c r="A15" s="290" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="291"/>
+      <c r="C15" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="252"/>
+      <c r="D15" s="294"/>
       <c r="E15" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="251" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="252"/>
+      <c r="G15" s="294"/>
       <c r="H15" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="251" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="252"/>
+      <c r="J15" s="294"/>
       <c r="K15" s="58"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="45">
+    <row r="16" spans="1:17" ht="90">
       <c r="A16" s="75" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="237">
+        <v>43</v>
+      </c>
+      <c r="C16" s="231">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
@@ -3554,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16" s="65">
         <f>1.5/2</f>
@@ -3564,9 +3684,11 @@
         <v>2</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="71"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="71">
+        <v>1</v>
+      </c>
       <c r="J16" s="72">
         <v>2</v>
       </c>
@@ -3576,10 +3698,10 @@
     </row>
     <row r="17" spans="1:13" ht="30">
       <c r="A17" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" s="45">
         <v>1</v>
@@ -3588,7 +3710,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="62"/>
-      <c r="F17" s="243">
+      <c r="F17" s="237">
         <f>2.5/3</f>
         <v>0.83333333333333337</v>
       </c>
@@ -3596,9 +3718,11 @@
         <v>3</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="74"/>
+        <v>48</v>
+      </c>
+      <c r="I17" s="74">
+        <v>1</v>
+      </c>
       <c r="J17" s="44">
         <v>3</v>
       </c>
@@ -3608,12 +3732,12 @@
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="226">
+        <v>50</v>
+      </c>
+      <c r="C18" s="220">
         <f>2.75/3</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3621,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F18" s="68">
         <v>1</v>
@@ -3630,20 +3754,25 @@
         <v>3</v>
       </c>
       <c r="H18" s="69"/>
-      <c r="I18" s="74"/>
+      <c r="I18" s="247">
+        <f>2.75/3</f>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="J18" s="44">
         <v>3</v>
       </c>
-      <c r="K18" s="46"/>
+      <c r="K18" s="46" t="s">
+        <v>52</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3659,7 +3788,9 @@
         <v>3</v>
       </c>
       <c r="H19" s="69"/>
-      <c r="I19" s="74"/>
+      <c r="I19" s="74">
+        <v>1</v>
+      </c>
       <c r="J19" s="44">
         <v>3</v>
       </c>
@@ -3669,10 +3800,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3688,7 +3819,9 @@
         <v>2</v>
       </c>
       <c r="H20" s="69"/>
-      <c r="I20" s="74"/>
+      <c r="I20" s="74">
+        <v>1</v>
+      </c>
       <c r="J20" s="44">
         <v>2</v>
       </c>
@@ -3697,10 +3830,10 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="94" customFormat="1" ht="15.75">
-      <c r="A21" s="262" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="259"/>
+      <c r="A21" s="292" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="288"/>
       <c r="C21" s="95">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>12.5</v>
@@ -3721,7 +3854,7 @@
       <c r="H21" s="100"/>
       <c r="I21" s="101">
         <f>SUMPRODUCT(I16:I20,J16:J20)</f>
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="J21" s="102">
         <f>SUM(J16:J20)</f>
@@ -3732,38 +3865,38 @@
       <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="255" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="256"/>
-      <c r="C22" s="251" t="s">
+      <c r="A22" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="289"/>
+      <c r="C22" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="252"/>
+      <c r="D22" s="294"/>
       <c r="E22" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="251" t="s">
+      <c r="F22" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="252"/>
+      <c r="G22" s="294"/>
       <c r="H22" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="251" t="s">
+      <c r="I22" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="252"/>
+      <c r="J22" s="294"/>
       <c r="K22" s="58"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" ht="60">
+    <row r="23" spans="1:13" ht="75">
       <c r="A23" s="77" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C23" s="81">
         <f>(2-2*0.25)/2</f>
@@ -3773,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="83" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F23" s="106">
         <f>2/2</f>
@@ -3783,22 +3916,27 @@
         <v>2</v>
       </c>
       <c r="H23" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="111"/>
+        <v>61</v>
+      </c>
+      <c r="I23" s="111">
+        <f>(2-2*0.25)/2</f>
+        <v>0.75</v>
+      </c>
       <c r="J23" s="112">
         <v>2</v>
       </c>
-      <c r="K23" s="113"/>
+      <c r="K23" s="113" t="s">
+        <v>62</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="30">
       <c r="A24" s="79" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C24" s="45">
         <f>(1-0.25)/1</f>
@@ -3808,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F24" s="68">
         <f>1/1</f>
@@ -3818,7 +3956,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="69"/>
-      <c r="I24" s="74"/>
+      <c r="I24" s="74">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="J24" s="44">
         <v>1</v>
       </c>
@@ -3826,12 +3967,12 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="30">
+    <row r="25" spans="1:13" ht="60">
       <c r="A25" s="79" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C25" s="45">
         <f>1/1</f>
@@ -3849,9 +3990,12 @@
         <v>1</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="74"/>
+        <v>68</v>
+      </c>
+      <c r="I25" s="74">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="J25" s="44">
         <v>1</v>
       </c>
@@ -3860,10 +4004,10 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="258" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="259"/>
+      <c r="A26" s="287" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="288"/>
       <c r="C26" s="84">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>3.25</v>
@@ -3884,7 +4028,7 @@
       <c r="H26" s="100"/>
       <c r="I26" s="101">
         <f>SUMPRODUCT(I23:I25,J23:J25)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J26" s="102">
         <f>SUM(J23:J25)</f>
@@ -3895,38 +4039,38 @@
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="255" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="256"/>
-      <c r="C27" s="251" t="s">
+      <c r="A27" s="258" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="289"/>
+      <c r="C27" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="252"/>
+      <c r="D27" s="294"/>
       <c r="E27" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="251" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="252"/>
+      <c r="G27" s="294"/>
       <c r="H27" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="251" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="252"/>
+      <c r="J27" s="294"/>
       <c r="K27" s="58"/>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
       <c r="A28" s="117" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C28" s="109">
         <v>1</v>
@@ -3942,7 +4086,9 @@
         <v>2</v>
       </c>
       <c r="H28" s="64"/>
-      <c r="I28" s="115"/>
+      <c r="I28" s="115">
+        <v>1</v>
+      </c>
       <c r="J28" s="70">
         <v>2</v>
       </c>
@@ -3952,12 +4098,12 @@
     </row>
     <row r="29" spans="1:13" ht="60" customHeight="1">
       <c r="A29" s="54" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="226">
+        <v>73</v>
+      </c>
+      <c r="C29" s="220">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
@@ -3965,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F29" s="68">
         <v>1</v>
@@ -3974,7 +4120,9 @@
         <v>2</v>
       </c>
       <c r="H29" s="43"/>
-      <c r="I29" s="74"/>
+      <c r="I29" s="74">
+        <v>1</v>
+      </c>
       <c r="J29" s="44">
         <v>2</v>
       </c>
@@ -3982,14 +4130,14 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" ht="30">
+    <row r="30" spans="1:13" ht="60">
       <c r="A30" s="21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="226">
+        <v>76</v>
+      </c>
+      <c r="C30" s="220">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
@@ -3997,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
@@ -4006,7 +4154,9 @@
         <v>2</v>
       </c>
       <c r="H30" s="43"/>
-      <c r="I30" s="74"/>
+      <c r="I30" s="74">
+        <v>1</v>
+      </c>
       <c r="J30" s="44">
         <v>2</v>
       </c>
@@ -4016,12 +4166,12 @@
     </row>
     <row r="31" spans="1:13" ht="60">
       <c r="A31" s="21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="226">
+        <v>79</v>
+      </c>
+      <c r="C31" s="220">
         <f>2.75/3</f>
         <v>0.91666666666666663</v>
       </c>
@@ -4029,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F31" s="68">
         <v>1</v>
@@ -4038,19 +4188,24 @@
         <v>3</v>
       </c>
       <c r="H31" s="43"/>
-      <c r="I31" s="74"/>
+      <c r="I31" s="247">
+        <f>2.75/3</f>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="J31" s="44">
         <v>3</v>
       </c>
-      <c r="K31" s="46"/>
+      <c r="K31" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="253" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="254"/>
+      <c r="A32" s="285" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="286"/>
       <c r="C32" s="84">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>8.25</v>
@@ -4071,7 +4226,7 @@
       <c r="H32" s="114"/>
       <c r="I32" s="101">
         <f>SUMPRODUCT(I28:I31,J28:J31)</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="J32" s="102">
         <f>SUM(J28:J31)</f>
@@ -4082,21 +4237,21 @@
       <c r="M32" s="93"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="255" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="257"/>
-      <c r="C33" s="251" t="s">
+      <c r="A33" s="258" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="259"/>
+      <c r="C33" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="252"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="251" t="s">
+      <c r="F33" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="252"/>
+      <c r="G33" s="294"/>
       <c r="H33" s="58" t="s">
         <v>18</v>
       </c>
@@ -4110,10 +4265,10 @@
     </row>
     <row r="34" spans="1:13" ht="30">
       <c r="A34" s="117" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C34" s="109">
         <f>(1-0.25)/1</f>
@@ -4123,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="110" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F34" s="104">
         <f>1/1</f>
@@ -4133,7 +4288,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="105"/>
-      <c r="I34" s="115"/>
+      <c r="I34" s="115">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="J34" s="70">
         <v>1</v>
       </c>
@@ -4143,10 +4301,10 @@
     </row>
     <row r="35" spans="1:13" ht="71.25" customHeight="1">
       <c r="A35" s="54" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C35" s="45">
         <f>(1-2*0.25)/1</f>
@@ -4156,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="62" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F35" s="68">
         <f>(1-0.25)/1</f>
@@ -4166,24 +4324,29 @@
         <v>1</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="74"/>
+        <v>89</v>
+      </c>
+      <c r="I35" s="74">
+        <f>(1-0.25)/1</f>
+        <v>0.75</v>
+      </c>
       <c r="J35" s="44">
         <v>1</v>
       </c>
-      <c r="K35" s="46"/>
+      <c r="K35" s="46" t="s">
+        <v>90</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="45">
+    <row r="36" spans="1:13" ht="120">
       <c r="A36" s="21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="226">
+        <v>92</v>
+      </c>
+      <c r="C36" s="220">
         <f>(3-0.5)/3</f>
         <v>0.83333333333333337</v>
       </c>
@@ -4191,9 +4354,9 @@
         <v>3</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="243">
+        <v>93</v>
+      </c>
+      <c r="F36" s="237">
         <f>(3-0.25)/3</f>
         <v>0.91666666666666663</v>
       </c>
@@ -4201,9 +4364,12 @@
         <v>3</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" s="74"/>
+        <v>94</v>
+      </c>
+      <c r="I36" s="74">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
       <c r="J36" s="44">
         <v>3</v>
       </c>
@@ -4211,12 +4377,12 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="90">
+    <row r="37" spans="1:13" ht="150">
       <c r="A37" s="21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C37" s="45">
         <f>(3-3*0.25)/3</f>
@@ -4226,9 +4392,9 @@
         <v>3</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="243">
+        <v>97</v>
+      </c>
+      <c r="F37" s="237">
         <f>(3-2*0.25)/3</f>
         <v>0.83333333333333337</v>
       </c>
@@ -4236,21 +4402,26 @@
         <v>3</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="74"/>
+        <v>98</v>
+      </c>
+      <c r="I37" s="247">
+        <f>(3-0.25)/3</f>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="J37" s="44">
         <v>3</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="253" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="254"/>
+      <c r="A38" s="285" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="286"/>
       <c r="C38" s="119">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>6</v>
@@ -4271,7 +4442,7 @@
       <c r="H38" s="89"/>
       <c r="I38" s="101">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J38" s="102">
         <f>SUM(J34:J37)</f>
@@ -4282,38 +4453,38 @@
       <c r="M38" s="93"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="255" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="256"/>
-      <c r="C39" s="251" t="s">
+      <c r="A39" s="258" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="289"/>
+      <c r="C39" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="252"/>
+      <c r="D39" s="294"/>
       <c r="E39" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="251" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="252"/>
+      <c r="G39" s="294"/>
       <c r="H39" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="251" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="252"/>
+      <c r="J39" s="294"/>
       <c r="K39" s="58"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="45">
+    <row r="40" spans="1:13" ht="60">
       <c r="A40" s="75" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C40" s="81">
         <v>0.5</v>
@@ -4322,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="83" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F40" s="106">
         <v>1</v>
@@ -4331,7 +4502,9 @@
         <v>1</v>
       </c>
       <c r="H40" s="108"/>
-      <c r="I40" s="111"/>
+      <c r="I40" s="111">
+        <v>1</v>
+      </c>
       <c r="J40" s="112">
         <v>1</v>
       </c>
@@ -4341,10 +4514,10 @@
     </row>
     <row r="41" spans="1:13" ht="30">
       <c r="A41" s="21" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C41" s="45">
         <v>1</v>
@@ -4360,7 +4533,9 @@
         <v>4</v>
       </c>
       <c r="H41" s="69"/>
-      <c r="I41" s="74"/>
+      <c r="I41" s="74">
+        <v>1</v>
+      </c>
       <c r="J41" s="44">
         <v>4</v>
       </c>
@@ -4370,10 +4545,10 @@
     </row>
     <row r="42" spans="1:13" ht="30">
       <c r="A42" s="21" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C42" s="45">
         <v>1</v>
@@ -4382,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="62"/>
-      <c r="F42" s="243">
+      <c r="F42" s="237">
         <f>2.75/3</f>
         <v>0.91666666666666663</v>
       </c>
@@ -4390,9 +4565,11 @@
         <v>3</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="74"/>
+        <v>108</v>
+      </c>
+      <c r="I42" s="74">
+        <v>1</v>
+      </c>
       <c r="J42" s="44">
         <v>3</v>
       </c>
@@ -4402,12 +4579,12 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="226">
+        <v>110</v>
+      </c>
+      <c r="C43" s="220">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
@@ -4415,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F43" s="68">
         <v>1</v>
@@ -4424,19 +4601,21 @@
         <v>2</v>
       </c>
       <c r="H43" s="69"/>
-      <c r="I43" s="74"/>
+      <c r="I43" s="74">
+        <v>1</v>
+      </c>
       <c r="J43" s="44">
         <v>2</v>
       </c>
       <c r="K43" s="46"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="30">
+    <row r="44" spans="1:13" ht="75">
       <c r="A44" s="21" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C44" s="35">
         <f>1.5/2</f>
@@ -4446,9 +4625,9 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="312">
+        <v>114</v>
+      </c>
+      <c r="F44" s="245">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
@@ -4456,9 +4635,11 @@
         <v>2</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="I44" s="39"/>
+        <v>115</v>
+      </c>
+      <c r="I44" s="39">
+        <v>1</v>
+      </c>
       <c r="J44" s="34">
         <v>2</v>
       </c>
@@ -4466,14 +4647,14 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="30">
       <c r="A45" s="21" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="236">
+        <v>117</v>
+      </c>
+      <c r="C45" s="230">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
@@ -4481,19 +4662,21 @@
         <v>3</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="312">
-        <f>2.5/3</f>
-        <v>0.83333333333333337</v>
+        <v>118</v>
+      </c>
+      <c r="F45" s="245">
+        <f>3/3</f>
+        <v>1</v>
       </c>
       <c r="G45" s="33">
         <v>3</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" s="39"/>
+        <v>119</v>
+      </c>
+      <c r="I45" s="39">
+        <v>1</v>
+      </c>
       <c r="J45" s="34">
         <v>3</v>
       </c>
@@ -4501,14 +4684,14 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="45">
+    <row r="46" spans="1:13" ht="135">
       <c r="A46" s="21" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="226">
+        <v>121</v>
+      </c>
+      <c r="C46" s="220">
         <f>1.75/3</f>
         <v>0.58333333333333337</v>
       </c>
@@ -4516,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="62" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F46" s="68">
         <v>1</v>
@@ -4525,7 +4708,9 @@
         <v>3</v>
       </c>
       <c r="H46" s="69"/>
-      <c r="I46" s="74"/>
+      <c r="I46" s="74">
+        <v>1</v>
+      </c>
       <c r="J46" s="44">
         <v>3</v>
       </c>
@@ -4533,12 +4718,12 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="45">
+    <row r="47" spans="1:13" ht="90">
       <c r="A47" s="21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C47" s="45">
         <v>1</v>
@@ -4547,7 +4732,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="62"/>
-      <c r="F47" s="243">
+      <c r="F47" s="237">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
@@ -4555,9 +4740,11 @@
         <v>6</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="I47" s="74"/>
+        <v>125</v>
+      </c>
+      <c r="I47" s="74">
+        <v>1</v>
+      </c>
       <c r="J47" s="44">
         <v>6</v>
       </c>
@@ -4567,10 +4754,10 @@
     </row>
     <row r="48" spans="1:13" ht="45">
       <c r="A48" s="21" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C48" s="45">
         <f>2/8</f>
@@ -4580,7 +4767,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F48" s="68">
         <v>1</v>
@@ -4589,7 +4776,9 @@
         <v>8</v>
       </c>
       <c r="H48" s="69"/>
-      <c r="I48" s="74"/>
+      <c r="I48" s="74">
+        <v>1</v>
+      </c>
       <c r="J48" s="44">
         <v>8</v>
       </c>
@@ -4597,12 +4786,12 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="45">
+    <row r="49" spans="1:13" ht="150">
       <c r="A49" s="21" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C49" s="45">
         <v>0.5</v>
@@ -4611,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F49" s="68">
         <f>4.5/6</f>
@@ -4621,9 +4810,11 @@
         <v>6</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I49" s="74"/>
+        <v>132</v>
+      </c>
+      <c r="I49" s="74">
+        <v>1</v>
+      </c>
       <c r="J49" s="44">
         <v>6</v>
       </c>
@@ -4633,10 +4824,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4652,7 +4843,9 @@
         <v>3</v>
       </c>
       <c r="H50" s="69"/>
-      <c r="I50" s="74"/>
+      <c r="I50" s="74">
+        <v>1</v>
+      </c>
       <c r="J50" s="44">
         <v>3</v>
       </c>
@@ -4661,11 +4854,11 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="253" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="254"/>
-      <c r="C51" s="129">
+      <c r="A51" s="285" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="286"/>
+      <c r="C51" s="123">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>28.5</v>
       </c>
@@ -4676,7 +4869,7 @@
       <c r="E51" s="97"/>
       <c r="F51" s="120">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="G51" s="88">
         <f>SUM(G40:G50)</f>
@@ -4685,7 +4878,7 @@
       <c r="H51" s="89"/>
       <c r="I51" s="90">
         <f>SUMPRODUCT(I40:I50,J40:J50)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J51" s="91">
         <f>SUM(J40:J50)</f>
@@ -4696,38 +4889,38 @@
       <c r="M51" s="93"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="255" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="257"/>
-      <c r="C52" s="251" t="s">
+      <c r="A52" s="258" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="259"/>
+      <c r="C52" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="252"/>
+      <c r="D52" s="294"/>
       <c r="E52" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="251" t="s">
+      <c r="F52" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="252"/>
+      <c r="G52" s="294"/>
       <c r="H52" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="251" t="s">
+      <c r="I52" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="252"/>
+      <c r="J52" s="294"/>
       <c r="K52" s="58"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" ht="30">
       <c r="A53" s="75" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C53" s="109">
         <f>2/2</f>
@@ -4745,22 +4938,25 @@
         <v>2</v>
       </c>
       <c r="H53" s="108"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125">
+      <c r="I53" s="111">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="J53" s="112">
         <v>2</v>
       </c>
-      <c r="K53" s="126"/>
+      <c r="K53" s="113"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" ht="30">
       <c r="A54" s="21" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="226">
+        <v>139</v>
+      </c>
+      <c r="C54" s="220">
         <f>(2-3*0.25)/2</f>
         <v>0.625</v>
       </c>
@@ -4778,22 +4974,25 @@
         <v>2</v>
       </c>
       <c r="H54" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I54" s="127"/>
-      <c r="J54" s="121">
+        <v>140</v>
+      </c>
+      <c r="I54" s="74">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="44">
         <v>2</v>
       </c>
-      <c r="K54" s="128"/>
+      <c r="K54" s="46"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="54" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C55" s="45">
         <f>1/1</f>
@@ -4811,20 +5010,23 @@
         <v>1</v>
       </c>
       <c r="H55" s="69"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="121">
-        <v>1</v>
-      </c>
-      <c r="K55" s="128"/>
+      <c r="I55" s="74">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="J55" s="44">
+        <v>1</v>
+      </c>
+      <c r="K55" s="46"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" ht="105">
+    <row r="56" spans="1:13" ht="120">
       <c r="A56" s="54" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C56" s="45">
         <f>1/1</f>
@@ -4834,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F56" s="68">
         <f>4/4</f>
@@ -4844,20 +5046,25 @@
         <v>4</v>
       </c>
       <c r="H56" s="69"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="121">
+      <c r="I56" s="74">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+      <c r="J56" s="44">
         <v>4</v>
       </c>
-      <c r="K56" s="128"/>
+      <c r="K56" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C57" s="45">
         <f>2/2</f>
@@ -4875,19 +5082,22 @@
         <v>2</v>
       </c>
       <c r="H57" s="69"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="121">
+      <c r="I57" s="74">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="44">
         <v>2</v>
       </c>
-      <c r="K57" s="128"/>
+      <c r="K57" s="46"/>
       <c r="L57" s="7"/>
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="253" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="254"/>
+      <c r="A58" s="285" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="286"/>
       <c r="C58" s="95">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>10.25</v>
@@ -4908,7 +5118,7 @@
       <c r="H58" s="100"/>
       <c r="I58" s="90">
         <f>SUMPRODUCT(I53:I57,J53:J57)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J58" s="91">
         <f>SUM(J53:J57)</f>
@@ -4919,28 +5129,28 @@
       <c r="M58" s="93"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="279" t="s">
+      <c r="A59" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="280"/>
-      <c r="C59" s="280"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="280"/>
-      <c r="G59" s="280"/>
-      <c r="H59" s="280"/>
-      <c r="I59" s="280"/>
-      <c r="J59" s="280"/>
-      <c r="K59" s="281"/>
+      <c r="B59" s="252"/>
+      <c r="C59" s="252"/>
+      <c r="D59" s="252"/>
+      <c r="E59" s="252"/>
+      <c r="F59" s="252"/>
+      <c r="G59" s="252"/>
+      <c r="H59" s="252"/>
+      <c r="I59" s="252"/>
+      <c r="J59" s="252"/>
+      <c r="K59" s="253"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="282" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="283"/>
-      <c r="C60" s="130">
+      <c r="A60" s="254" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="255"/>
+      <c r="C60" s="124">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
         <v>78.25</v>
       </c>
@@ -4949,89 +5159,55 @@
         <v>100</v>
       </c>
       <c r="E60" s="61"/>
-      <c r="F60" s="131">
+      <c r="F60" s="125">
         <f t="shared" si="0"/>
-        <v>93.9</v>
+        <v>94.4</v>
       </c>
       <c r="G60" s="66">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H60" s="67"/>
-      <c r="I60" s="132">
+      <c r="I60" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="122">
+        <v>97.7</v>
+      </c>
+      <c r="J60" s="121">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K60" s="123"/>
+      <c r="K60" s="122"/>
       <c r="L60" s="7"/>
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="284" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" s="285"/>
-      <c r="C61" s="286">
+      <c r="A61" s="256" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="257"/>
+      <c r="C61" s="260">
         <f>C60/D60</f>
         <v>0.78249999999999997</v>
       </c>
-      <c r="D61" s="287"/>
-      <c r="E61" s="288"/>
-      <c r="F61" s="289">
+      <c r="D61" s="261"/>
+      <c r="E61" s="262"/>
+      <c r="F61" s="263">
         <f>F60/G60</f>
-        <v>0.93900000000000006</v>
-      </c>
-      <c r="G61" s="290"/>
-      <c r="H61" s="291"/>
-      <c r="I61" s="292">
+        <v>0.94400000000000006</v>
+      </c>
+      <c r="G61" s="264"/>
+      <c r="H61" s="265"/>
+      <c r="I61" s="266">
         <f>I60/J60</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="293"/>
-      <c r="K61" s="294"/>
-      <c r="L61" s="133"/>
-      <c r="M61" s="133"/>
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J61" s="267"/>
+      <c r="K61" s="268"/>
+      <c r="L61" s="127"/>
+      <c r="M61" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
@@ -5046,6 +5222,40 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L21 L26 L32 L38 L51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -5067,19 +5277,19 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="135" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="135" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="135"/>
-    <col min="5" max="5" width="11" style="135" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="135" customWidth="1"/>
-    <col min="7" max="7" width="94.5703125" style="135" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="135"/>
+    <col min="1" max="1" width="50.5703125" style="129" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="129" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="129"/>
+    <col min="5" max="5" width="11" style="129" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="129" customWidth="1"/>
+    <col min="7" max="7" width="94.5703125" style="129" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="129"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75">
@@ -5094,24 +5304,24 @@
       <c r="G2" s="295"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="134" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
+      <c r="A4" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:9" ht="24" thickBot="1">
@@ -5126,8 +5336,8 @@
       <c r="G6" s="305"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="157" t="s">
-        <v>143</v>
+      <c r="A7" s="151" t="s">
+        <v>152</v>
       </c>
       <c r="B7" s="306"/>
       <c r="C7" s="306"/>
@@ -5137,347 +5347,347 @@
       <c r="G7" s="307"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="204" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="183" t="s">
+      <c r="A8" s="198" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="183" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="183" t="s">
+      <c r="C8" s="177" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="183" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="183" t="s">
+      <c r="E8" s="177" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="184" t="s">
+      <c r="G8" s="178" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="145" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="138">
+      <c r="A9" s="139" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="132">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="C9" s="138">
+      <c r="C9" s="132">
         <v>0.75</v>
       </c>
-      <c r="D9" s="138">
+      <c r="D9" s="132">
         <v>5</v>
       </c>
-      <c r="E9" s="138">
+      <c r="E9" s="132">
         <f t="shared" ref="E9:E19" si="0">B9*C9*D9</f>
         <v>3.75</v>
       </c>
-      <c r="F9" s="218" t="s">
+      <c r="F9" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="222" t="s">
-        <v>148</v>
+      <c r="G9" s="216" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="112.5" customHeight="1">
-      <c r="A10" s="185" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="186">
+      <c r="A10" s="179" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="180">
         <f>(5-0.75)/5</f>
         <v>0.85</v>
       </c>
-      <c r="C10" s="233">
-        <v>1</v>
-      </c>
-      <c r="D10" s="186">
+      <c r="C10" s="227">
+        <v>1</v>
+      </c>
+      <c r="D10" s="180">
         <v>5</v>
       </c>
-      <c r="E10" s="186">
+      <c r="E10" s="180">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="F10" s="223" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="240" t="s">
-        <v>150</v>
+      <c r="F10" s="217" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="234" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="300">
-      <c r="A11" s="145" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="227">
+      <c r="A11" s="139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="221">
         <f>(18-2.5)/18</f>
         <v>0.86111111111111116</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C11" s="132">
         <v>0.75</v>
       </c>
-      <c r="D11" s="138">
+      <c r="D11" s="132">
         <v>18</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E11" s="132">
         <f t="shared" si="0"/>
         <v>11.625</v>
       </c>
-      <c r="F11" s="225" t="s">
+      <c r="F11" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="222" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="136"/>
+      <c r="G11" s="216" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="130"/>
     </row>
     <row r="12" spans="1:9" ht="103.5" customHeight="1">
-      <c r="A12" s="185" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="231">
+      <c r="A12" s="179" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="225">
         <f>14.5/16</f>
         <v>0.90625</v>
       </c>
-      <c r="C12" s="233">
+      <c r="C12" s="227">
         <v>0.75</v>
       </c>
-      <c r="D12" s="186">
+      <c r="D12" s="180">
         <v>16</v>
       </c>
-      <c r="E12" s="186">
+      <c r="E12" s="180">
         <f t="shared" si="0"/>
         <v>10.875</v>
       </c>
-      <c r="F12" s="224" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="220" t="s">
-        <v>154</v>
+      <c r="F12" s="218" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="214" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75">
-      <c r="A13" s="145" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="138">
+      <c r="A13" s="139" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="132">
         <f>(10-1)/10</f>
         <v>0.9</v>
       </c>
-      <c r="C13" s="138">
+      <c r="C13" s="132">
         <v>0.75</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D13" s="132">
         <v>10</v>
       </c>
-      <c r="E13" s="138">
+      <c r="E13" s="132">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="F13" s="225" t="s">
+      <c r="F13" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="222" t="s">
-        <v>156</v>
+      <c r="G13" s="216" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="90">
-      <c r="A14" s="228" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="232">
+      <c r="A14" s="222" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="226">
         <f>6.5/8</f>
         <v>0.8125</v>
       </c>
-      <c r="C14" s="138">
-        <v>1</v>
-      </c>
-      <c r="D14" s="138">
+      <c r="C14" s="132">
+        <v>1</v>
+      </c>
+      <c r="D14" s="132">
         <v>8</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E14" s="132">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F14" s="230" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="229" t="s">
-        <v>158</v>
+      <c r="F14" s="224" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="223" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="270">
-      <c r="A15" s="185" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="186">
+      <c r="A15" s="179" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="180">
         <f>(12-3)/12</f>
         <v>0.75</v>
       </c>
-      <c r="C15" s="186">
+      <c r="C15" s="180">
         <v>0.75</v>
       </c>
-      <c r="D15" s="186">
+      <c r="D15" s="180">
         <v>12</v>
       </c>
-      <c r="E15" s="186">
+      <c r="E15" s="180">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="F15" s="224" t="s">
+      <c r="F15" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="220" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="238"/>
-      <c r="I15" s="239"/>
+      <c r="G15" s="214" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="232"/>
+      <c r="I15" s="233"/>
     </row>
     <row r="16" spans="1:9" ht="120">
-      <c r="A16" s="145" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="138">
+      <c r="A16" s="139" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="132">
         <f>8.5/10</f>
         <v>0.85</v>
       </c>
-      <c r="C16" s="138">
-        <v>1</v>
-      </c>
-      <c r="D16" s="138">
+      <c r="C16" s="132">
+        <v>1</v>
+      </c>
+      <c r="D16" s="132">
         <v>10</v>
       </c>
-      <c r="E16" s="138">
+      <c r="E16" s="132">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="F16" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="222" t="s">
-        <v>162</v>
+      <c r="F16" s="219" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="216" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="186">
+      <c r="A17" s="179" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="180">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="C17" s="186">
+      <c r="C17" s="180">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="D17" s="186">
+      <c r="D17" s="180">
         <v>4</v>
       </c>
-      <c r="E17" s="186">
+      <c r="E17" s="180">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F17" s="219" t="s">
+      <c r="F17" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="187"/>
+      <c r="G17" s="181"/>
     </row>
     <row r="18" spans="1:7" ht="105">
-      <c r="A18" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="227">
+      <c r="A18" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="221">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C18" s="234">
+      <c r="C18" s="228">
         <v>0.75</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="132">
         <v>6</v>
       </c>
-      <c r="E18" s="138">
+      <c r="E18" s="132">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="F18" s="218" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="222" t="s">
-        <v>165</v>
+      <c r="F18" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="216" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="185" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="231">
+      <c r="A19" s="179" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="225">
         <f>4/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C19" s="186">
-        <v>1</v>
-      </c>
-      <c r="D19" s="186">
+      <c r="C19" s="180">
+        <v>1</v>
+      </c>
+      <c r="D19" s="180">
         <v>6</v>
       </c>
-      <c r="E19" s="186">
+      <c r="E19" s="180">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F19" s="219" t="s">
+      <c r="F19" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="220" t="s">
-        <v>167</v>
+      <c r="G19" s="214" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="165" t="s">
-        <v>168</v>
+      <c r="A20" s="159" t="s">
+        <v>177</v>
       </c>
       <c r="B20" s="308"/>
       <c r="C20" s="308"/>
-      <c r="D20" s="217">
+      <c r="D20" s="211">
         <f>SUM(D9:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="166">
+      <c r="E20" s="160">
         <f>SUM(E9:E19)/D20 + E22*D22 + E21*D21</f>
         <v>0.70750000000000002</v>
       </c>
-      <c r="F20" s="168"/>
-      <c r="G20" s="167"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="161"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="185" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="188"/>
-      <c r="C21" s="188"/>
-      <c r="D21" s="189">
+      <c r="A21" s="179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183">
         <v>-0.15</v>
       </c>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="190"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="184"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="146" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148">
+      <c r="A22" s="140" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142">
         <v>-0.2</v>
       </c>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="149"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="143"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
       <c r="A23" s="309" t="s">
@@ -5491,8 +5701,8 @@
       <c r="G23" s="311"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="156" t="s">
-        <v>143</v>
+      <c r="A24" s="150" t="s">
+        <v>152</v>
       </c>
       <c r="B24" s="296"/>
       <c r="C24" s="296"/>
@@ -5502,325 +5712,325 @@
       <c r="G24" s="297"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="203" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="191" t="s">
+      <c r="A25" s="197" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="191" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="191" t="s">
+      <c r="C25" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="191" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="191" t="s">
+      <c r="E25" s="185" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="192" t="s">
+      <c r="G25" s="186" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="90">
-      <c r="A26" s="150" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="139">
-        <v>1</v>
-      </c>
-      <c r="C26" s="139">
+      <c r="A26" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="133">
+        <v>1</v>
+      </c>
+      <c r="C26" s="133">
         <v>0.75</v>
       </c>
-      <c r="D26" s="139">
+      <c r="D26" s="133">
         <v>24</v>
       </c>
-      <c r="E26" s="139">
+      <c r="E26" s="133">
         <f>B26*C26*D26</f>
         <v>18</v>
       </c>
-      <c r="F26" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="244" t="s">
-        <v>172</v>
+      <c r="F26" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="238" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="193" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27" s="194">
-        <v>1</v>
-      </c>
-      <c r="C27" s="194">
-        <v>1</v>
-      </c>
-      <c r="D27" s="194">
+      <c r="A27" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="188">
+        <v>1</v>
+      </c>
+      <c r="C27" s="188">
+        <v>1</v>
+      </c>
+      <c r="D27" s="188">
         <v>8</v>
       </c>
-      <c r="E27" s="194">
+      <c r="E27" s="188">
         <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
         <v>8</v>
       </c>
-      <c r="F27" s="194" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="195"/>
+      <c r="F27" s="188" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="189"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="150" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="139">
+      <c r="A28" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="133">
         <f>(10-1)/10</f>
         <v>0.9</v>
       </c>
-      <c r="C28" s="139">
-        <v>1</v>
-      </c>
-      <c r="D28" s="139">
+      <c r="C28" s="133">
+        <v>1</v>
+      </c>
+      <c r="D28" s="133">
         <v>10</v>
       </c>
-      <c r="E28" s="139">
+      <c r="E28" s="133">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F28" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="241" t="s">
-        <v>175</v>
+      <c r="F28" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="235" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="193" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="194">
-        <v>1</v>
-      </c>
-      <c r="C29" s="194">
-        <v>1</v>
-      </c>
-      <c r="D29" s="194">
+      <c r="A29" s="187" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="188">
+        <v>1</v>
+      </c>
+      <c r="C29" s="188">
+        <v>1</v>
+      </c>
+      <c r="D29" s="188">
         <v>8</v>
       </c>
-      <c r="E29" s="194">
+      <c r="E29" s="188">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F29" s="194" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="242"/>
+      <c r="F29" s="188" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="236"/>
     </row>
     <row r="30" spans="1:7" ht="210">
-      <c r="A30" s="150" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="139">
+      <c r="A30" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="133">
         <f>10/10</f>
         <v>1</v>
       </c>
-      <c r="C30" s="139">
+      <c r="C30" s="133">
         <v>0.5</v>
       </c>
-      <c r="D30" s="139">
+      <c r="D30" s="133">
         <v>10</v>
       </c>
-      <c r="E30" s="139">
+      <c r="E30" s="133">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F30" s="139" t="s">
+      <c r="F30" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="244" t="s">
-        <v>178</v>
+      <c r="G30" s="238" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="315">
-      <c r="A31" s="193" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="248">
+      <c r="A31" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="242">
         <f>(12-2.5)/12</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="C31" s="194">
-        <v>1</v>
-      </c>
-      <c r="D31" s="194">
+      <c r="C31" s="188">
+        <v>1</v>
+      </c>
+      <c r="D31" s="188">
         <v>12</v>
       </c>
-      <c r="E31" s="194">
+      <c r="E31" s="188">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="F31" s="194" t="s">
+      <c r="F31" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="247" t="s">
-        <v>180</v>
+      <c r="G31" s="241" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="150">
-      <c r="A32" s="150" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="139">
-        <v>1</v>
-      </c>
-      <c r="C32" s="139">
-        <v>1</v>
-      </c>
-      <c r="D32" s="139">
+      <c r="A32" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="133">
+        <v>1</v>
+      </c>
+      <c r="C32" s="133">
+        <v>1</v>
+      </c>
+      <c r="D32" s="133">
         <v>10</v>
       </c>
-      <c r="E32" s="139">
+      <c r="E32" s="133">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F32" s="139" t="s">
+      <c r="F32" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="244" t="s">
-        <v>182</v>
+      <c r="G32" s="238" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="180">
-      <c r="A33" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="194">
-        <v>1</v>
-      </c>
-      <c r="C33" s="194">
+      <c r="A33" s="187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="188">
+        <v>1</v>
+      </c>
+      <c r="C33" s="188">
         <v>0.75</v>
       </c>
-      <c r="D33" s="194">
+      <c r="D33" s="188">
         <v>4</v>
       </c>
-      <c r="E33" s="194">
+      <c r="E33" s="188">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F33" s="194" t="s">
+      <c r="F33" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="247" t="s">
-        <v>184</v>
+      <c r="G33" s="241" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="150">
-      <c r="A34" s="150" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="139">
+      <c r="A34" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="133">
         <f>(10-1)/10</f>
         <v>0.9</v>
       </c>
-      <c r="C34" s="139">
-        <v>1</v>
-      </c>
-      <c r="D34" s="139">
+      <c r="C34" s="133">
+        <v>1</v>
+      </c>
+      <c r="D34" s="133">
         <v>10</v>
       </c>
-      <c r="E34" s="139">
+      <c r="E34" s="133">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F34" s="139" t="s">
+      <c r="F34" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="249" t="s">
-        <v>186</v>
+      <c r="G34" s="243" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="135">
-      <c r="A35" s="245" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="246">
-        <v>1</v>
-      </c>
-      <c r="C35" s="246">
-        <v>1</v>
-      </c>
-      <c r="D35" s="246">
+      <c r="A35" s="239" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="240">
+        <v>1</v>
+      </c>
+      <c r="C35" s="240">
+        <v>1</v>
+      </c>
+      <c r="D35" s="240">
         <v>4</v>
       </c>
-      <c r="E35" s="246">
+      <c r="E35" s="240">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F35" s="246" t="s">
+      <c r="F35" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="250" t="s">
-        <v>188</v>
+      <c r="G35" s="244" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A36" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163">
+      <c r="A36" s="156" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157">
         <f>SUM(D26:D35)</f>
         <v>100</v>
       </c>
-      <c r="E36" s="164">
+      <c r="E36" s="158">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
         <v>0.83499999999999996</v>
       </c>
-      <c r="F36" s="164"/>
-      <c r="G36" s="313" t="s">
-        <v>189</v>
+      <c r="F36" s="158"/>
+      <c r="G36" s="312" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="193" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="196"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="197">
+      <c r="A37" s="187" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="190"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="191">
         <v>-0.15</v>
       </c>
-      <c r="E37" s="196"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="198"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="192"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="150" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="140"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="141">
+      <c r="A38" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="135">
         <v>-0.2</v>
       </c>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="151"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="145"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="199" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="200"/>
-      <c r="C39" s="200"/>
-      <c r="D39" s="201">
+      <c r="A39" s="193" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="195">
         <v>-0.05</v>
       </c>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
-      <c r="G39" s="202"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="196"/>
     </row>
     <row r="40" spans="1:7" ht="24" thickBot="1">
       <c r="A40" s="298" t="s">
@@ -5834,8 +6044,8 @@
       <c r="G40" s="300"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="155" t="s">
-        <v>143</v>
+      <c r="A41" s="149" t="s">
+        <v>152</v>
       </c>
       <c r="B41" s="301"/>
       <c r="C41" s="301"/>
@@ -5845,283 +6055,323 @@
       <c r="G41" s="302"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="172" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="173" t="s">
+      <c r="A42" s="166" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="173" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="173" t="s">
+      <c r="C42" s="167" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="173" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="174" t="s">
+      <c r="E42" s="167" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="175" t="s">
+      <c r="G42" s="169" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="152" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="142">
-        <v>0</v>
-      </c>
-      <c r="C43" s="142">
-        <v>0</v>
-      </c>
-      <c r="D43" s="142">
+      <c r="A43" s="146" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="136">
+        <v>1</v>
+      </c>
+      <c r="C43" s="136">
+        <v>1</v>
+      </c>
+      <c r="D43" s="136">
         <v>14</v>
       </c>
-      <c r="E43" s="142">
+      <c r="E43" s="136">
         <f t="shared" ref="E43:E52" si="2">B43*C43*D43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="142"/>
-      <c r="G43" s="153"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="169" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="170">
-        <v>0</v>
-      </c>
-      <c r="C44" s="170">
-        <v>0</v>
-      </c>
-      <c r="D44" s="170">
+        <v>14</v>
+      </c>
+      <c r="F43" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="147"/>
+    </row>
+    <row r="44" spans="1:7" ht="60">
+      <c r="A44" s="163" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="164">
+        <v>1</v>
+      </c>
+      <c r="C44" s="164">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="164">
         <v>10</v>
       </c>
-      <c r="E44" s="170">
+      <c r="E44" s="164">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="170"/>
-      <c r="G44" s="171"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="152" t="s">
-        <v>194</v>
-      </c>
-      <c r="B45" s="142">
-        <v>0</v>
-      </c>
-      <c r="C45" s="142">
-        <v>0</v>
-      </c>
-      <c r="D45" s="142">
+        <v>7.5</v>
+      </c>
+      <c r="F44" s="164" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="248" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="240">
+      <c r="A45" s="146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="136">
+        <f>12/12</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="136">
+        <v>1</v>
+      </c>
+      <c r="D45" s="136">
         <v>12</v>
       </c>
-      <c r="E45" s="142">
+      <c r="E45" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="142"/>
-      <c r="G45" s="153"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="169" t="s">
-        <v>195</v>
-      </c>
-      <c r="B46" s="170">
-        <v>0</v>
-      </c>
-      <c r="C46" s="170">
-        <v>0</v>
-      </c>
-      <c r="D46" s="170">
+        <v>12</v>
+      </c>
+      <c r="F45" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="170">
+      <c r="G45" s="249" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="210">
+      <c r="A46" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="164">
+        <v>1</v>
+      </c>
+      <c r="C46" s="164">
+        <v>1</v>
+      </c>
+      <c r="D46" s="164">
+        <v>18</v>
+      </c>
+      <c r="E46" s="164">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="170"/>
-      <c r="G46" s="171"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="B47" s="142">
-        <v>0</v>
-      </c>
-      <c r="C47" s="142">
-        <v>0</v>
-      </c>
-      <c r="D47" s="142">
+        <v>18</v>
+      </c>
+      <c r="F46" s="164" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="248" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="180">
+      <c r="A47" s="146" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="136">
+        <v>1</v>
+      </c>
+      <c r="C47" s="136">
+        <v>1</v>
+      </c>
+      <c r="D47" s="136">
         <v>16</v>
       </c>
-      <c r="E47" s="142">
+      <c r="E47" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="142"/>
-      <c r="G47" s="153"/>
+        <v>16</v>
+      </c>
+      <c r="F47" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="249" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="169" t="s">
-        <v>197</v>
-      </c>
-      <c r="B48" s="170">
-        <v>0</v>
-      </c>
-      <c r="C48" s="170">
-        <v>0</v>
-      </c>
-      <c r="D48" s="170">
+      <c r="A48" s="163" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="164">
+        <v>1</v>
+      </c>
+      <c r="C48" s="164">
+        <v>1</v>
+      </c>
+      <c r="D48" s="164">
         <v>6</v>
       </c>
-      <c r="E48" s="170">
+      <c r="E48" s="164">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="170"/>
-      <c r="G48" s="171"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="152" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" s="142">
-        <v>0</v>
-      </c>
-      <c r="C49" s="142">
-        <v>0</v>
-      </c>
-      <c r="D49" s="142">
         <v>6</v>
       </c>
-      <c r="E49" s="142">
+      <c r="F48" s="164" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="165"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="136">
+        <v>1</v>
+      </c>
+      <c r="C49" s="136">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="136">
+        <v>6</v>
+      </c>
+      <c r="E49" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="142"/>
-      <c r="G49" s="153"/>
+        <v>4.5</v>
+      </c>
+      <c r="F49" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="249" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="170">
-        <v>0</v>
-      </c>
-      <c r="C50" s="170">
-        <v>0</v>
-      </c>
-      <c r="D50" s="170">
+      <c r="A50" s="163" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="164">
+        <v>1</v>
+      </c>
+      <c r="C50" s="164">
+        <v>1</v>
+      </c>
+      <c r="D50" s="164">
         <v>6</v>
       </c>
-      <c r="E50" s="170">
+      <c r="E50" s="164">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="170"/>
-      <c r="G50" s="171"/>
+        <v>6</v>
+      </c>
+      <c r="F50" s="164" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="165"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="152" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" s="142">
-        <v>0</v>
-      </c>
-      <c r="C51" s="142">
-        <v>0</v>
-      </c>
-      <c r="D51" s="142">
+      <c r="A51" s="146" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="250">
+        <f>7.5/8</f>
+        <v>0.9375</v>
+      </c>
+      <c r="C51" s="136">
+        <v>1</v>
+      </c>
+      <c r="D51" s="136">
         <v>8</v>
       </c>
-      <c r="E51" s="142">
+      <c r="E51" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="142"/>
-      <c r="G51" s="153"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="170">
-        <v>0</v>
-      </c>
-      <c r="C52" s="170">
-        <v>0</v>
-      </c>
-      <c r="D52" s="170">
+        <v>7.5</v>
+      </c>
+      <c r="F51" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="147" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="90">
+      <c r="A52" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="164">
+        <v>1</v>
+      </c>
+      <c r="C52" s="164">
+        <v>1</v>
+      </c>
+      <c r="D52" s="164">
         <v>4</v>
       </c>
-      <c r="E52" s="170">
+      <c r="E52" s="164">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="170"/>
-      <c r="G52" s="171"/>
+        <v>4</v>
+      </c>
+      <c r="F52" s="164" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="248" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="159"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159">
+      <c r="A53" s="152" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="153">
         <f>SUM(D43:D52)</f>
         <v>100</v>
       </c>
-      <c r="E53" s="160">
+      <c r="E53" s="154">
         <f>SUM(E43:E52)/D53 + D54*E54  + D55*E55 + D56*E56</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="160"/>
-      <c r="G53" s="161"/>
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="F53" s="154"/>
+      <c r="G53" s="155"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="169" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="177">
+      <c r="A54" s="163" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171">
         <v>-0.15</v>
       </c>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="178"/>
+      <c r="E54" s="170">
+        <v>0.25</v>
+      </c>
+      <c r="F54" s="170"/>
+      <c r="G54" s="172" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="152" t="s">
-        <v>190</v>
-      </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="144">
+      <c r="A55" s="146" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="138">
         <v>-0.2</v>
       </c>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="154"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="148"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A56" s="179" t="s">
-        <v>191</v>
-      </c>
-      <c r="B56" s="180"/>
-      <c r="C56" s="180"/>
-      <c r="D56" s="181">
+      <c r="A56" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="175">
         <v>-0.05</v>
       </c>
-      <c r="E56" s="180"/>
-      <c r="F56" s="180"/>
-      <c r="G56" s="182"/>
+      <c r="E56" s="174"/>
+      <c r="F56" s="174"/>
+      <c r="G56" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6153,6 +6403,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -6284,12 +6540,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6300,11 +6550,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
